--- a/ADMA.xlsx
+++ b/ADMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B86777-1C40-493B-9993-B82C53DCECC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1219BE26-B512-47D0-92A9-4E324C2E9616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1155" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{0C2E6319-0109-49A4-A46A-629FFB4D718F}"/>
+    <workbookView xWindow="810" yWindow="525" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{0C2E6319-0109-49A4-A46A-629FFB4D718F}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -824,10 +824,10 @@
   <dimension ref="A1:DH47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1028,43 +1028,43 @@
       </c>
       <c r="M4" s="2">
         <f t="shared" si="9"/>
-        <v>133.75</v>
+        <v>136.42500000000001</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" si="9"/>
-        <v>143.11250000000001</v>
+        <v>148.89424500000001</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" si="9"/>
-        <v>153.13037499999999</v>
+        <v>162.50317899300001</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" si="9"/>
-        <v>163.84950125000003</v>
+        <v>177.3559695529602</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" si="9"/>
-        <v>175.31896633750006</v>
+        <v>193.5663051701008</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ref="R4" si="10">R2*R5/1000000</f>
-        <v>187.59129398112509</v>
+        <v>211.25826546264807</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" ref="S4" si="11">S2*S5/1000000</f>
-        <v>200.72268455980384</v>
+        <v>230.56727092593411</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" ref="T4" si="12">T2*T5/1000000</f>
-        <v>214.77327247899015</v>
+        <v>251.64111948856453</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" ref="U4" si="13">U2*U5/1000000</f>
-        <v>229.80740155251948</v>
+        <v>274.64111780981932</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" ref="V4" si="14">V2*V5/1000000</f>
-        <v>245.89391966119587</v>
+        <v>299.74331597763688</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -1078,34 +1078,44 @@
         <v>5000</v>
       </c>
       <c r="M5" s="2">
-        <v>5000</v>
+        <f>L5*1.02</f>
+        <v>5100</v>
       </c>
       <c r="N5" s="2">
-        <v>5000</v>
+        <f t="shared" ref="N5:V5" si="15">M5*1.02</f>
+        <v>5202</v>
       </c>
       <c r="O5" s="2">
-        <v>5000</v>
+        <f t="shared" si="15"/>
+        <v>5306.04</v>
       </c>
       <c r="P5" s="2">
-        <v>5000</v>
+        <f t="shared" si="15"/>
+        <v>5412.1607999999997</v>
       </c>
       <c r="Q5" s="2">
-        <v>5000</v>
+        <f t="shared" si="15"/>
+        <v>5520.4040159999995</v>
       </c>
       <c r="R5" s="2">
-        <v>5000</v>
+        <f t="shared" si="15"/>
+        <v>5630.8120963199999</v>
       </c>
       <c r="S5" s="2">
-        <v>5000</v>
+        <f t="shared" si="15"/>
+        <v>5743.4283382464</v>
       </c>
       <c r="T5" s="2">
-        <v>5000</v>
+        <f t="shared" si="15"/>
+        <v>5858.2969050113279</v>
       </c>
       <c r="U5" s="2">
-        <v>5000</v>
+        <f t="shared" si="15"/>
+        <v>5975.4628431115543</v>
       </c>
       <c r="V5" s="2">
-        <v>5000</v>
+        <f t="shared" si="15"/>
+        <v>6094.9720999737856</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -1116,48 +1126,48 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="2">
-        <f t="shared" ref="L6:Q6" si="15">L4*L3</f>
+        <f t="shared" ref="L6:Q6" si="16">L4*L3</f>
         <v>3.75</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" si="15"/>
-        <v>8.0250000000000004</v>
+        <f t="shared" si="16"/>
+        <v>8.1855000000000011</v>
       </c>
       <c r="N6" s="2">
-        <f t="shared" si="15"/>
-        <v>25.760250000000003</v>
+        <f t="shared" si="16"/>
+        <v>26.800964100000002</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" si="15"/>
-        <v>41.345201250000002</v>
+        <f t="shared" si="16"/>
+        <v>43.875858328110006</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="15"/>
-        <v>66.359048006250021</v>
+        <f t="shared" si="16"/>
+        <v>71.829167668948884</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="15"/>
-        <v>106.5062720500313</v>
+        <f t="shared" si="16"/>
+        <v>117.59153039083624</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" ref="R6:V6" si="16">R4*R3</f>
-        <v>119.65979664821018</v>
+        <f t="shared" ref="R6:V6" si="17">R4*R3</f>
+        <v>134.75636608198664</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" si="16"/>
-        <v>134.43778153426413</v>
+        <f t="shared" si="17"/>
+        <v>154.42675283897427</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" si="16"/>
-        <v>151.04084755374581</v>
+        <f t="shared" si="17"/>
+        <v>176.96842595087938</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" si="16"/>
-        <v>169.69439222663345</v>
+        <f t="shared" si="17"/>
+        <v>202.80050708692926</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" si="16"/>
-        <v>190.65164966662272</v>
+        <f t="shared" si="17"/>
+        <v>232.40329710640839</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -1216,35 +1226,35 @@
         <v>128</v>
       </c>
       <c r="O11" s="5">
-        <f t="shared" ref="O11:Q11" si="17">N11*1.07</f>
+        <f t="shared" ref="O11:Q11" si="18">N11*1.07</f>
         <v>136.96</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>146.5472</v>
       </c>
       <c r="Q11" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>156.80550400000001</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" ref="R11:V11" si="18">Q11*1.07</f>
+        <f t="shared" ref="R11:V11" si="19">Q11*1.07</f>
         <v>167.78188928000003</v>
       </c>
       <c r="S11" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>179.52662152960005</v>
       </c>
       <c r="T11" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>192.09348503667206</v>
       </c>
       <c r="U11" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>205.54002898923912</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>219.92783101848588</v>
       </c>
     </row>
@@ -1268,15 +1278,15 @@
         <v>450.96700000000004</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" ref="O12:Q12" si="19">N12*1.07</f>
+        <f t="shared" ref="O12:Q12" si="20">N12*1.07</f>
         <v>482.53469000000007</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>516.31211830000007</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>552.45396658100015</v>
       </c>
       <c r="R12" s="2">
@@ -1284,19 +1294,19 @@
         <v>563.50304591262011</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" ref="S12:V12" si="20">R12*1.02</f>
+        <f t="shared" ref="S12:V12" si="21">R12*1.02</f>
         <v>574.77310683087251</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>586.26856896748995</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>597.99394034683974</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>609.95381915377652</v>
       </c>
     </row>
@@ -1324,7 +1334,7 @@
         <v>300</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" ref="S13" si="21">R13*1.5</f>
+        <f t="shared" ref="S13" si="22">R13*1.5</f>
         <v>450</v>
       </c>
       <c r="T13" s="2">
@@ -1332,11 +1342,11 @@
         <v>495.00000000000006</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" ref="U13:V13" si="22">T13*1.1</f>
+        <f t="shared" ref="U13:V13" si="23">T13*1.1</f>
         <v>544.50000000000011</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>598.95000000000016</v>
       </c>
     </row>
@@ -1352,44 +1362,44 @@
         <v>3.75</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" ref="M14:V14" si="23">M6</f>
-        <v>8.0250000000000004</v>
+        <f t="shared" ref="M14:V14" si="24">M6</f>
+        <v>8.1855000000000011</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="23"/>
-        <v>25.760250000000003</v>
+        <f t="shared" si="24"/>
+        <v>26.800964100000002</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="23"/>
-        <v>41.345201250000002</v>
+        <f t="shared" si="24"/>
+        <v>43.875858328110006</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="23"/>
-        <v>66.359048006250021</v>
+        <f t="shared" si="24"/>
+        <v>71.829167668948884</v>
       </c>
       <c r="Q14" s="5">
-        <f t="shared" si="23"/>
-        <v>106.5062720500313</v>
+        <f t="shared" si="24"/>
+        <v>117.59153039083624</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="23"/>
-        <v>119.65979664821018</v>
+        <f t="shared" si="24"/>
+        <v>134.75636608198664</v>
       </c>
       <c r="S14" s="5">
-        <f t="shared" si="23"/>
-        <v>134.43778153426413</v>
+        <f t="shared" si="24"/>
+        <v>154.42675283897427</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="23"/>
-        <v>151.04084755374581</v>
+        <f t="shared" si="24"/>
+        <v>176.96842595087938</v>
       </c>
       <c r="U14" s="5">
-        <f t="shared" si="23"/>
-        <v>169.69439222663345</v>
+        <f t="shared" si="24"/>
+        <v>202.80050708692926</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="23"/>
-        <v>190.65164966662272</v>
+        <f t="shared" si="24"/>
+        <v>232.40329710640839</v>
       </c>
     </row>
     <row r="15" spans="1:22" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1408,43 +1418,43 @@
       </c>
       <c r="M15" s="4">
         <f>SUM(M11:M14)</f>
-        <v>497.995</v>
+        <v>498.15550000000002</v>
       </c>
       <c r="N15" s="4">
         <f>SUM(N11:N14)</f>
-        <v>604.72725000000014</v>
+        <v>605.76796410000009</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" ref="O15:Q15" si="24">SUM(O11:O14)</f>
-        <v>710.83989125000016</v>
+        <f t="shared" ref="O15:Q15" si="25">SUM(O11:O14)</f>
+        <v>713.37054832811009</v>
       </c>
       <c r="P15" s="4">
-        <f t="shared" si="24"/>
-        <v>829.21836630625012</v>
+        <f t="shared" si="25"/>
+        <v>834.68848596894895</v>
       </c>
       <c r="Q15" s="4">
-        <f t="shared" si="24"/>
-        <v>1015.7657426310315</v>
+        <f t="shared" si="25"/>
+        <v>1026.8510009718364</v>
       </c>
       <c r="R15" s="4">
-        <f t="shared" ref="R15" si="25">SUM(R11:R14)</f>
-        <v>1150.9447318408304</v>
+        <f t="shared" ref="R15" si="26">SUM(R11:R14)</f>
+        <v>1166.0413012746069</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" ref="S15" si="26">SUM(S11:S14)</f>
-        <v>1338.7375098947366</v>
+        <f t="shared" ref="S15" si="27">SUM(S11:S14)</f>
+        <v>1358.7264811994469</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" ref="T15" si="27">SUM(T11:T14)</f>
-        <v>1424.4029015579079</v>
+        <f t="shared" ref="T15" si="28">SUM(T11:T14)</f>
+        <v>1450.3304799550415</v>
       </c>
       <c r="U15" s="4">
-        <f t="shared" ref="U15" si="28">SUM(U11:U14)</f>
-        <v>1517.7283615627123</v>
+        <f t="shared" ref="U15" si="29">SUM(U11:U14)</f>
+        <v>1550.834476423008</v>
       </c>
       <c r="V15" s="4">
-        <f t="shared" ref="V15" si="29">SUM(V11:V14)</f>
-        <v>1619.4832998388852</v>
+        <f t="shared" ref="V15" si="30">SUM(V11:V14)</f>
+        <v>1661.2349472786709</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1462,43 +1472,43 @@
       </c>
       <c r="M16" s="2">
         <f>M15*(1-M35)</f>
-        <v>179.2782</v>
+        <v>179.33598000000001</v>
       </c>
       <c r="N16" s="2">
-        <f t="shared" ref="N16:Q16" si="30">N15*(1-N35)</f>
-        <v>198.35053800000003</v>
+        <f t="shared" ref="N16:Q16" si="31">N15*(1-N35)</f>
+        <v>198.6918922248</v>
       </c>
       <c r="O16" s="2">
-        <f t="shared" si="30"/>
-        <v>228.37864026079998</v>
+        <f t="shared" si="31"/>
+        <v>229.19168976685515</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" si="30"/>
-        <v>260.78320583107819</v>
+        <f t="shared" si="31"/>
+        <v>262.50351908013539</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" si="30"/>
-        <v>312.48786524324316</v>
+        <f t="shared" si="31"/>
+        <v>315.89810893350142</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16:V16" si="31">R15*(1-R35)</f>
-        <v>346.10531526224469</v>
+        <f t="shared" ref="R16:V16" si="32">R15*(1-R35)</f>
+        <v>350.64506663232015</v>
       </c>
       <c r="S16" s="2">
-        <f t="shared" si="31"/>
-        <v>393.21564991875101</v>
+        <f t="shared" si="32"/>
+        <v>399.08683548328105</v>
       </c>
       <c r="T16" s="2">
-        <f t="shared" si="31"/>
-        <v>408.31714046532244</v>
+        <f t="shared" si="32"/>
+        <v>415.74950012896056</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" si="31"/>
-        <v>424.24308611107966</v>
+        <f t="shared" si="32"/>
+        <v>433.49707430368244</v>
       </c>
       <c r="V16" s="2">
-        <f t="shared" si="31"/>
-        <v>441.01816804535605</v>
+        <f t="shared" si="32"/>
+        <v>452.38798894354113</v>
       </c>
     </row>
     <row r="17" spans="1:112" x14ac:dyDescent="0.2">
@@ -1510,52 +1520,52 @@
         <v>35.299999999999997</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" ref="K17:L17" si="32">K15-K16</f>
+        <f t="shared" ref="K17:L17" si="33">K15-K16</f>
         <v>88.899999999999977</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>219.54999999999998</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" ref="M17" si="33">M15-M16</f>
-        <v>318.71680000000003</v>
+        <f t="shared" ref="M17" si="34">M15-M16</f>
+        <v>318.81952000000001</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" ref="N17" si="34">N15-N16</f>
-        <v>406.37671200000011</v>
+        <f t="shared" ref="N17" si="35">N15-N16</f>
+        <v>407.07607187520011</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" ref="O17" si="35">O15-O16</f>
-        <v>482.46125098920015</v>
+        <f t="shared" ref="O17" si="36">O15-O16</f>
+        <v>484.17885856125497</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17" si="36">P15-P16</f>
-        <v>568.43516047517187</v>
+        <f t="shared" ref="P17" si="37">P15-P16</f>
+        <v>572.18496688881351</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" ref="Q17" si="37">Q15-Q16</f>
-        <v>703.27787738778829</v>
+        <f t="shared" ref="Q17" si="38">Q15-Q16</f>
+        <v>710.95289203833499</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17:V17" si="38">R15-R16</f>
-        <v>804.83941657858577</v>
+        <f t="shared" ref="R17:V17" si="39">R15-R16</f>
+        <v>815.3962346422868</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="38"/>
-        <v>945.52185997598554</v>
+        <f t="shared" si="39"/>
+        <v>959.63964571616589</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="38"/>
-        <v>1016.0857610925855</v>
+        <f t="shared" si="39"/>
+        <v>1034.5809798260809</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="38"/>
-        <v>1093.4852754516326</v>
+        <f t="shared" si="39"/>
+        <v>1117.3374021193256</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="38"/>
-        <v>1178.4651317935291</v>
+        <f t="shared" si="39"/>
+        <v>1208.8469583351298</v>
       </c>
     </row>
     <row r="18" spans="1:112" x14ac:dyDescent="0.2">
@@ -1623,52 +1633,52 @@
         <v>74.653999999999996</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" ref="K22:L22" si="39">SUM(K18:K21)</f>
+        <f t="shared" ref="K22:L22" si="40">SUM(K18:K21)</f>
         <v>67.3</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>80.562999999999988</v>
       </c>
       <c r="M22" s="2">
         <f>M15*M36</f>
-        <v>92.197377796459122</v>
+        <v>92.227092309930811</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" ref="N22:Q22" si="40">N15*N36</f>
-        <v>109.71833331142385</v>
+        <f t="shared" ref="N22:Q22" si="41">N15*N36</f>
+        <v>109.90715466271187</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="40"/>
-        <v>126.39140167214111</v>
+        <f t="shared" si="41"/>
+        <v>126.84136698668105</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="40"/>
-        <v>144.49097671899301</v>
+        <f t="shared" si="41"/>
+        <v>145.44414293545523</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="40"/>
-        <v>173.45684855697084</v>
+        <f t="shared" si="41"/>
+        <v>175.34981845793976</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22:V22" si="41">R15*R36</f>
-        <v>196.54063694967081</v>
+        <f t="shared" ref="R22:V22" si="42">R15*R36</f>
+        <v>199.11859685529006</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="41"/>
-        <v>228.60899887199395</v>
+        <f t="shared" si="42"/>
+        <v>232.02240791198577</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="41"/>
-        <v>243.23761671630513</v>
+        <f t="shared" si="42"/>
+        <v>247.66512972519206</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="41"/>
-        <v>259.17430320135338</v>
+        <f t="shared" si="42"/>
+        <v>264.82765624391402</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="41"/>
-        <v>276.55044631952637</v>
+        <f t="shared" si="42"/>
+        <v>283.68015042650723</v>
       </c>
     </row>
     <row r="23" spans="1:112" x14ac:dyDescent="0.2">
@@ -1680,52 +1690,52 @@
         <v>-39.353999999999999</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" ref="K23:L23" si="42">K17-K22</f>
+        <f t="shared" ref="K23:L23" si="43">K17-K22</f>
         <v>21.59999999999998</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>138.98699999999999</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23" si="43">M17-M22</f>
-        <v>226.5194222035409</v>
+        <f t="shared" ref="M23" si="44">M17-M22</f>
+        <v>226.5924276900692</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" ref="N23" si="44">N17-N22</f>
-        <v>296.65837868857625</v>
+        <f t="shared" ref="N23" si="45">N17-N22</f>
+        <v>297.16891721248822</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" ref="O23" si="45">O17-O22</f>
-        <v>356.06984931705904</v>
+        <f t="shared" ref="O23" si="46">O17-O22</f>
+        <v>357.3374915745739</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" ref="P23" si="46">P17-P22</f>
-        <v>423.94418375617886</v>
+        <f t="shared" ref="P23" si="47">P17-P22</f>
+        <v>426.74082395335824</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" ref="Q23" si="47">Q17-Q22</f>
-        <v>529.82102883081745</v>
+        <f t="shared" ref="Q23" si="48">Q17-Q22</f>
+        <v>535.60307358039518</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23:V23" si="48">R17-R22</f>
-        <v>608.29877962891499</v>
+        <f t="shared" ref="R23:V23" si="49">R17-R22</f>
+        <v>616.27763778699671</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="48"/>
-        <v>716.91286110399164</v>
+        <f t="shared" si="49"/>
+        <v>727.61723780418015</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="48"/>
-        <v>772.84814437628029</v>
+        <f t="shared" si="49"/>
+        <v>786.91585010088886</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="48"/>
-        <v>834.31097225027918</v>
+        <f t="shared" si="49"/>
+        <v>852.50974587541157</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="48"/>
-        <v>901.91468547400268</v>
+        <f t="shared" si="49"/>
+        <v>925.16680790862256</v>
       </c>
     </row>
     <row r="24" spans="1:112" x14ac:dyDescent="0.2">
@@ -1747,39 +1757,39 @@
       </c>
       <c r="N24" s="2">
         <f>M43*$Y$30</f>
-        <v>11.936712572447838</v>
+        <v>11.94017303250928</v>
       </c>
       <c r="O24" s="2">
         <f>N43*$Y$30</f>
-        <v>26.564119898220376</v>
+        <v>26.591943910122161</v>
       </c>
       <c r="P24" s="2">
         <f>O43*$Y$30</f>
-        <v>44.700970039024625</v>
+        <v>44.790199152096754</v>
       </c>
       <c r="Q24" s="2">
         <f>P43*$Y$30</f>
-        <v>66.914750328917279</v>
+        <v>67.140769647295315</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ref="R24:V24" si="49">Q43*$Y$30</f>
-        <v>95.200026261088709</v>
+        <f t="shared" ref="R24:V24" si="50">Q43*$Y$30</f>
+        <v>95.710827816287846</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="49"/>
-        <v>128.54586966027489</v>
+        <f t="shared" si="50"/>
+        <v>129.45908108588355</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="49"/>
-        <v>168.62061349850111</v>
+        <f t="shared" si="50"/>
+        <v>170.08449860127254</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="49"/>
-        <v>213.24623262176573</v>
+        <f t="shared" si="50"/>
+        <v>215.44631512975502</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="49"/>
-        <v>262.90044413270067</v>
+        <f t="shared" si="50"/>
+        <v>266.06743242139987</v>
       </c>
     </row>
     <row r="25" spans="1:112" x14ac:dyDescent="0.2">
@@ -1805,52 +1815,52 @@
         <v>-58.608999999999995</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" ref="K26:L26" si="50">K23+K24-K25</f>
+        <f t="shared" ref="K26:L26" si="51">K23+K24-K25</f>
         <v>-1.7800000000000189</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>127.08699999999999</v>
       </c>
       <c r="M26" s="2">
         <f>M23+M24-M25</f>
-        <v>227.66482220354089</v>
+        <v>227.7378276900692</v>
       </c>
       <c r="N26" s="2">
         <f>N23+N24-N25</f>
-        <v>308.59509126102409</v>
+        <v>309.1090902449975</v>
       </c>
       <c r="O26" s="2">
         <f>O23+O24-O25</f>
-        <v>382.63396921527942</v>
+        <v>383.92943548469606</v>
       </c>
       <c r="P26" s="2">
         <f>P23+P24-P25</f>
-        <v>468.6451537952035</v>
+        <v>471.53102310545501</v>
       </c>
       <c r="Q26" s="2">
         <f>Q23+Q24-Q25</f>
-        <v>596.73577915973476</v>
+        <v>602.74384322769049</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" ref="R26:V26" si="51">R23+R24-R25</f>
-        <v>703.49880589000372</v>
+        <f t="shared" ref="R26:V26" si="52">R23+R24-R25</f>
+        <v>711.98846560328457</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="51"/>
-        <v>845.45873076426653</v>
+        <f t="shared" si="52"/>
+        <v>857.0763188900637</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="51"/>
-        <v>941.46875787478143</v>
+        <f t="shared" si="52"/>
+        <v>957.00034870216143</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="51"/>
-        <v>1047.5572048720448</v>
+        <f t="shared" si="52"/>
+        <v>1067.9560610051667</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="51"/>
-        <v>1164.8151296067033</v>
+        <f t="shared" si="52"/>
+        <v>1191.2342403300224</v>
       </c>
     </row>
     <row r="27" spans="1:112" x14ac:dyDescent="0.2">
@@ -1868,43 +1878,43 @@
       </c>
       <c r="M27" s="2">
         <f>M26*M33</f>
-        <v>47.809612662743589</v>
+        <v>47.824943814914526</v>
       </c>
       <c r="N27" s="2">
-        <f t="shared" ref="N27:Q27" si="52">N26*N33</f>
-        <v>64.804969164815063</v>
+        <f t="shared" ref="N27:Q27" si="53">N26*N33</f>
+        <v>64.912908951449467</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="52"/>
-        <v>80.35313353520867</v>
+        <f t="shared" si="53"/>
+        <v>80.625181451786176</v>
       </c>
       <c r="P27" s="2">
-        <f t="shared" si="52"/>
-        <v>98.415482296992735</v>
+        <f t="shared" si="53"/>
+        <v>99.021514852145543</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" si="52"/>
-        <v>125.3145136235443</v>
+        <f t="shared" si="53"/>
+        <v>126.576207077815</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ref="R27:V27" si="53">R26*R33</f>
-        <v>147.73474923690077</v>
+        <f t="shared" ref="R27:V27" si="54">R26*R33</f>
+        <v>149.51757777668976</v>
       </c>
       <c r="S27" s="2">
-        <f t="shared" si="53"/>
-        <v>177.54633346049596</v>
+        <f t="shared" si="54"/>
+        <v>179.98602696691336</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="53"/>
-        <v>197.70843915370409</v>
+        <f t="shared" si="54"/>
+        <v>200.9700732274539</v>
       </c>
       <c r="U27" s="2">
-        <f t="shared" si="53"/>
-        <v>219.98701302312941</v>
+        <f t="shared" si="54"/>
+        <v>224.27077281108501</v>
       </c>
       <c r="V27" s="2">
-        <f t="shared" si="53"/>
-        <v>244.61117721740769</v>
+        <f t="shared" si="54"/>
+        <v>250.15919046930469</v>
       </c>
     </row>
     <row r="28" spans="1:112" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1917,412 +1927,412 @@
         <v>-58.608999999999995</v>
       </c>
       <c r="K28" s="4">
-        <f t="shared" ref="K28:Q28" si="54">K26-K27</f>
+        <f t="shared" ref="K28:Q28" si="55">K26-K27</f>
         <v>-1.7800000000000189</v>
       </c>
       <c r="L28" s="4">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>199.08699999999999</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="54"/>
-        <v>179.85520954079732</v>
+        <f t="shared" si="55"/>
+        <v>179.91288387515468</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="54"/>
-        <v>243.79012209620902</v>
+        <f t="shared" si="55"/>
+        <v>244.19618129354802</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="54"/>
-        <v>302.28083568007077</v>
+        <f t="shared" si="55"/>
+        <v>303.30425403290985</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="54"/>
-        <v>370.22967149821079</v>
+        <f t="shared" si="55"/>
+        <v>372.50950825330949</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="54"/>
-        <v>471.42126553619045</v>
+        <f t="shared" si="55"/>
+        <v>476.16763614987548</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" ref="R28:V28" si="55">R26-R27</f>
-        <v>555.7640566531029</v>
+        <f t="shared" ref="R28:V28" si="56">R26-R27</f>
+        <v>562.47088782659478</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="55"/>
-        <v>667.9123973037706</v>
+        <f t="shared" si="56"/>
+        <v>677.09029192315029</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="55"/>
-        <v>743.76031872107728</v>
+        <f t="shared" si="56"/>
+        <v>756.03027547470754</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="55"/>
-        <v>827.57019184891544</v>
+        <f t="shared" si="56"/>
+        <v>843.68528819408175</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="55"/>
-        <v>920.20395238929564</v>
+        <f t="shared" si="56"/>
+        <v>941.07504986071774</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" ref="W28:BB28" si="56">V28*(1+$Y$31)</f>
-        <v>901.79987334150974</v>
+        <f t="shared" ref="W28:BB28" si="57">V28*(1+$Y$31)</f>
+        <v>912.84279836489623</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="56"/>
-        <v>883.76387587467957</v>
+        <f t="shared" si="57"/>
+        <v>885.4575144139493</v>
       </c>
       <c r="Y28" s="4">
-        <f t="shared" si="56"/>
-        <v>866.08859835718602</v>
+        <f t="shared" si="57"/>
+        <v>858.89378898153075</v>
       </c>
       <c r="Z28" s="4">
-        <f t="shared" si="56"/>
-        <v>848.7668263900423</v>
+        <f t="shared" si="57"/>
+        <v>833.12697531208482</v>
       </c>
       <c r="AA28" s="4">
-        <f t="shared" si="56"/>
-        <v>831.79148986224141</v>
+        <f t="shared" si="57"/>
+        <v>808.13316605272223</v>
       </c>
       <c r="AB28" s="4">
-        <f t="shared" si="56"/>
-        <v>815.1556600649966</v>
+        <f t="shared" si="57"/>
+        <v>783.88917107114059</v>
       </c>
       <c r="AC28" s="4">
-        <f t="shared" si="56"/>
-        <v>798.8525468636966</v>
+        <f t="shared" si="57"/>
+        <v>760.3724959390064</v>
       </c>
       <c r="AD28" s="4">
-        <f t="shared" si="56"/>
-        <v>782.87549592642267</v>
+        <f t="shared" si="57"/>
+        <v>737.56132106083624</v>
       </c>
       <c r="AE28" s="4">
-        <f t="shared" si="56"/>
-        <v>767.21798600789418</v>
+        <f t="shared" si="57"/>
+        <v>715.43448142901116</v>
       </c>
       <c r="AF28" s="4">
-        <f t="shared" si="56"/>
-        <v>751.87362628773633</v>
+        <f t="shared" si="57"/>
+        <v>693.97144698614079</v>
       </c>
       <c r="AG28" s="4">
-        <f t="shared" si="56"/>
-        <v>736.83615376198156</v>
+        <f t="shared" si="57"/>
+        <v>673.15230357655651</v>
       </c>
       <c r="AH28" s="4">
-        <f t="shared" si="56"/>
-        <v>722.09943068674193</v>
+        <f t="shared" si="57"/>
+        <v>652.95773446925978</v>
       </c>
       <c r="AI28" s="4">
-        <f t="shared" si="56"/>
-        <v>707.65744207300702</v>
+        <f t="shared" si="57"/>
+        <v>633.36900243518198</v>
       </c>
       <c r="AJ28" s="4">
-        <f t="shared" si="56"/>
-        <v>693.50429323154685</v>
+        <f t="shared" si="57"/>
+        <v>614.36793236212645</v>
       </c>
       <c r="AK28" s="4">
-        <f t="shared" si="56"/>
-        <v>679.63420736691592</v>
+        <f t="shared" si="57"/>
+        <v>595.93689439126263</v>
       </c>
       <c r="AL28" s="4">
-        <f t="shared" si="56"/>
-        <v>666.04152321957758</v>
+        <f t="shared" si="57"/>
+        <v>578.05878755952472</v>
       </c>
       <c r="AM28" s="4">
-        <f t="shared" si="56"/>
-        <v>652.72069275518606</v>
+        <f t="shared" si="57"/>
+        <v>560.71702393273893</v>
       </c>
       <c r="AN28" s="4">
-        <f t="shared" si="56"/>
-        <v>639.66627890008238</v>
+        <f t="shared" si="57"/>
+        <v>543.89551321475676</v>
       </c>
       <c r="AO28" s="4">
-        <f t="shared" si="56"/>
-        <v>626.87295332208066</v>
+        <f t="shared" si="57"/>
+        <v>527.57864781831404</v>
       </c>
       <c r="AP28" s="4">
-        <f t="shared" si="56"/>
-        <v>614.33549425563899</v>
+        <f t="shared" si="57"/>
+        <v>511.75128838376463</v>
       </c>
       <c r="AQ28" s="4">
-        <f t="shared" si="56"/>
-        <v>602.04878437052616</v>
+        <f t="shared" si="57"/>
+        <v>496.3987497322517</v>
       </c>
       <c r="AR28" s="4">
-        <f t="shared" si="56"/>
-        <v>590.00780868311563</v>
+        <f t="shared" si="57"/>
+        <v>481.50678724028415</v>
       </c>
       <c r="AS28" s="4">
-        <f t="shared" si="56"/>
-        <v>578.20765250945328</v>
+        <f t="shared" si="57"/>
+        <v>467.06158362307559</v>
       </c>
       <c r="AT28" s="4">
-        <f t="shared" si="56"/>
-        <v>566.64349945926426</v>
+        <f t="shared" si="57"/>
+        <v>453.04973611438334</v>
       </c>
       <c r="AU28" s="4">
-        <f t="shared" si="56"/>
-        <v>555.31062947007899</v>
+        <f t="shared" si="57"/>
+        <v>439.45824403095185</v>
       </c>
       <c r="AV28" s="4">
-        <f t="shared" si="56"/>
-        <v>544.2044168806774</v>
+        <f t="shared" si="57"/>
+        <v>426.2744967100233</v>
       </c>
       <c r="AW28" s="4">
-        <f t="shared" si="56"/>
-        <v>533.32032854306385</v>
+        <f t="shared" si="57"/>
+        <v>413.48626180872259</v>
       </c>
       <c r="AX28" s="4">
-        <f t="shared" si="56"/>
-        <v>522.65392197220251</v>
+        <f t="shared" si="57"/>
+        <v>401.08167395446088</v>
       </c>
       <c r="AY28" s="4">
-        <f t="shared" si="56"/>
-        <v>512.20084353275843</v>
+        <f t="shared" si="57"/>
+        <v>389.04922373582707</v>
       </c>
       <c r="AZ28" s="4">
-        <f t="shared" si="56"/>
-        <v>501.95682666210325</v>
+        <f t="shared" si="57"/>
+        <v>377.37774702375225</v>
       </c>
       <c r="BA28" s="4">
-        <f t="shared" si="56"/>
-        <v>491.91769012886118</v>
+        <f t="shared" si="57"/>
+        <v>366.05641461303969</v>
       </c>
       <c r="BB28" s="4">
-        <f t="shared" si="56"/>
-        <v>482.07933632628396</v>
+        <f t="shared" si="57"/>
+        <v>355.07472217464851</v>
       </c>
       <c r="BC28" s="4">
-        <f t="shared" ref="BC28:CH28" si="57">BB28*(1+$Y$31)</f>
-        <v>472.43774959975826</v>
+        <f t="shared" ref="BC28:CH28" si="58">BB28*(1+$Y$31)</f>
+        <v>344.42248050940907</v>
       </c>
       <c r="BD28" s="4">
-        <f t="shared" si="57"/>
-        <v>462.98899460776306</v>
+        <f t="shared" si="58"/>
+        <v>334.0898060941268</v>
       </c>
       <c r="BE28" s="4">
-        <f t="shared" si="57"/>
-        <v>453.72921471560778</v>
+        <f t="shared" si="58"/>
+        <v>324.06711191130296</v>
       </c>
       <c r="BF28" s="4">
-        <f t="shared" si="57"/>
-        <v>444.65463042129562</v>
+        <f t="shared" si="58"/>
+        <v>314.34509855396385</v>
       </c>
       <c r="BG28" s="4">
-        <f t="shared" si="57"/>
-        <v>435.76153781286968</v>
+        <f t="shared" si="58"/>
+        <v>304.9147455973449</v>
       </c>
       <c r="BH28" s="4">
-        <f t="shared" si="57"/>
-        <v>427.04630705661225</v>
+        <f t="shared" si="58"/>
+        <v>295.76730322942456</v>
       </c>
       <c r="BI28" s="4">
-        <f t="shared" si="57"/>
-        <v>418.50538091547998</v>
+        <f t="shared" si="58"/>
+        <v>286.89428413254183</v>
       </c>
       <c r="BJ28" s="4">
-        <f t="shared" si="57"/>
-        <v>410.13527329717039</v>
+        <f t="shared" si="58"/>
+        <v>278.28745560856555</v>
       </c>
       <c r="BK28" s="4">
-        <f t="shared" si="57"/>
-        <v>401.93256783122695</v>
+        <f t="shared" si="58"/>
+        <v>269.9388319403086</v>
       </c>
       <c r="BL28" s="4">
-        <f t="shared" si="57"/>
-        <v>393.89391647460241</v>
+        <f t="shared" si="58"/>
+        <v>261.84066698209932</v>
       </c>
       <c r="BM28" s="4">
-        <f t="shared" si="57"/>
-        <v>386.01603814511037</v>
+        <f t="shared" si="58"/>
+        <v>253.98544697263634</v>
       </c>
       <c r="BN28" s="4">
-        <f t="shared" si="57"/>
-        <v>378.29571738220818</v>
+        <f t="shared" si="58"/>
+        <v>246.36588356345723</v>
       </c>
       <c r="BO28" s="4">
-        <f t="shared" si="57"/>
-        <v>370.72980303456399</v>
+        <f t="shared" si="58"/>
+        <v>238.97490705655352</v>
       </c>
       <c r="BP28" s="4">
-        <f t="shared" si="57"/>
-        <v>363.31520697387271</v>
+        <f t="shared" si="58"/>
+        <v>231.8056598448569</v>
       </c>
       <c r="BQ28" s="4">
-        <f t="shared" si="57"/>
-        <v>356.04890283439522</v>
+        <f t="shared" si="58"/>
+        <v>224.8514900495112</v>
       </c>
       <c r="BR28" s="4">
-        <f t="shared" si="57"/>
-        <v>348.92792477770729</v>
+        <f t="shared" si="58"/>
+        <v>218.10594534802587</v>
       </c>
       <c r="BS28" s="4">
-        <f t="shared" si="57"/>
-        <v>341.94936628215316</v>
+        <f t="shared" si="58"/>
+        <v>211.56276698758509</v>
       </c>
       <c r="BT28" s="4">
-        <f t="shared" si="57"/>
-        <v>335.11037895651009</v>
+        <f t="shared" si="58"/>
+        <v>205.21588397795753</v>
       </c>
       <c r="BU28" s="4">
-        <f t="shared" si="57"/>
-        <v>328.40817137737986</v>
+        <f t="shared" si="58"/>
+        <v>199.05940745861881</v>
       </c>
       <c r="BV28" s="4">
-        <f t="shared" si="57"/>
-        <v>321.84000794983223</v>
+        <f t="shared" si="58"/>
+        <v>193.08762523486024</v>
       </c>
       <c r="BW28" s="4">
-        <f t="shared" si="57"/>
-        <v>315.40320779083555</v>
+        <f t="shared" si="58"/>
+        <v>187.29499647781444</v>
       </c>
       <c r="BX28" s="4">
-        <f t="shared" si="57"/>
-        <v>309.09514363501881</v>
+        <f t="shared" si="58"/>
+        <v>181.67614658348</v>
       </c>
       <c r="BY28" s="4">
-        <f t="shared" si="57"/>
-        <v>302.91324076231842</v>
+        <f t="shared" si="58"/>
+        <v>176.22586218597559</v>
       </c>
       <c r="BZ28" s="4">
-        <f t="shared" si="57"/>
-        <v>296.85497594707203</v>
+        <f t="shared" si="58"/>
+        <v>170.93908632039631</v>
       </c>
       <c r="CA28" s="4">
-        <f t="shared" si="57"/>
-        <v>290.91787642813057</v>
+        <f t="shared" si="58"/>
+        <v>165.81091373078442</v>
       </c>
       <c r="CB28" s="4">
-        <f t="shared" si="57"/>
-        <v>285.09951889956795</v>
+        <f t="shared" si="58"/>
+        <v>160.8365863188609</v>
       </c>
       <c r="CC28" s="4">
-        <f t="shared" si="57"/>
-        <v>279.39752852157659</v>
+        <f t="shared" si="58"/>
+        <v>156.01148872929505</v>
       </c>
       <c r="CD28" s="4">
-        <f t="shared" si="57"/>
-        <v>273.80957795114506</v>
+        <f t="shared" si="58"/>
+        <v>151.3311440674162</v>
       </c>
       <c r="CE28" s="4">
-        <f t="shared" si="57"/>
-        <v>268.33338639212218</v>
+        <f t="shared" si="58"/>
+        <v>146.7912097453937</v>
       </c>
       <c r="CF28" s="4">
-        <f t="shared" si="57"/>
-        <v>262.96671866427971</v>
+        <f t="shared" si="58"/>
+        <v>142.38747345303187</v>
       </c>
       <c r="CG28" s="4">
-        <f t="shared" si="57"/>
-        <v>257.70738429099413</v>
+        <f t="shared" si="58"/>
+        <v>138.11584924944091</v>
       </c>
       <c r="CH28" s="4">
-        <f t="shared" si="57"/>
-        <v>252.55323660517425</v>
+        <f t="shared" si="58"/>
+        <v>133.97237377195768</v>
       </c>
       <c r="CI28" s="4">
-        <f t="shared" ref="CI28:DH28" si="58">CH28*(1+$Y$31)</f>
-        <v>247.50217187307075</v>
+        <f t="shared" ref="CI28:DH28" si="59">CH28*(1+$Y$31)</f>
+        <v>129.95320255879895</v>
       </c>
       <c r="CJ28" s="4">
-        <f t="shared" si="58"/>
-        <v>242.55212843560932</v>
+        <f t="shared" si="59"/>
+        <v>126.05460648203498</v>
       </c>
       <c r="CK28" s="4">
-        <f t="shared" si="58"/>
-        <v>237.70108586689713</v>
+        <f t="shared" si="59"/>
+        <v>122.27296828757393</v>
       </c>
       <c r="CL28" s="4">
-        <f t="shared" si="58"/>
-        <v>232.9470641495592</v>
+        <f t="shared" si="59"/>
+        <v>118.6047792389467</v>
       </c>
       <c r="CM28" s="4">
-        <f t="shared" si="58"/>
-        <v>228.28812286656802</v>
+        <f t="shared" si="59"/>
+        <v>115.0466358617783</v>
       </c>
       <c r="CN28" s="4">
-        <f t="shared" si="58"/>
-        <v>223.72236040923664</v>
+        <f t="shared" si="59"/>
+        <v>111.59523678592495</v>
       </c>
       <c r="CO28" s="4">
-        <f t="shared" si="58"/>
-        <v>219.24791320105192</v>
+        <f t="shared" si="59"/>
+        <v>108.2473796823472</v>
       </c>
       <c r="CP28" s="4">
-        <f t="shared" si="58"/>
-        <v>214.86295493703088</v>
+        <f t="shared" si="59"/>
+        <v>104.99995829187678</v>
       </c>
       <c r="CQ28" s="4">
-        <f t="shared" si="58"/>
-        <v>210.56569583829025</v>
+        <f t="shared" si="59"/>
+        <v>101.84995954312048</v>
       </c>
       <c r="CR28" s="4">
-        <f t="shared" si="58"/>
-        <v>206.35438192152444</v>
+        <f t="shared" si="59"/>
+        <v>98.794460756826865</v>
       </c>
       <c r="CS28" s="4">
-        <f t="shared" si="58"/>
-        <v>202.22729428309395</v>
+        <f t="shared" si="59"/>
+        <v>95.830626934122051</v>
       </c>
       <c r="CT28" s="4">
-        <f t="shared" si="58"/>
-        <v>198.18274839743208</v>
+        <f t="shared" si="59"/>
+        <v>92.955708126098386</v>
       </c>
       <c r="CU28" s="4">
-        <f t="shared" si="58"/>
-        <v>194.21909342948342</v>
+        <f t="shared" si="59"/>
+        <v>90.167036882315429</v>
       </c>
       <c r="CV28" s="4">
-        <f t="shared" si="58"/>
-        <v>190.33471156089374</v>
+        <f t="shared" si="59"/>
+        <v>87.462025775845959</v>
       </c>
       <c r="CW28" s="4">
-        <f t="shared" si="58"/>
-        <v>186.52801732967586</v>
+        <f t="shared" si="59"/>
+        <v>84.838165002570577</v>
       </c>
       <c r="CX28" s="4">
-        <f t="shared" si="58"/>
-        <v>182.79745698308236</v>
+        <f t="shared" si="59"/>
+        <v>82.293020052493461</v>
       </c>
       <c r="CY28" s="4">
-        <f t="shared" si="58"/>
-        <v>179.1415078434207</v>
+        <f t="shared" si="59"/>
+        <v>79.824229450918651</v>
       </c>
       <c r="CZ28" s="4">
-        <f t="shared" si="58"/>
-        <v>175.55867768655227</v>
+        <f t="shared" si="59"/>
+        <v>77.429502567391083</v>
       </c>
       <c r="DA28" s="4">
-        <f t="shared" si="58"/>
-        <v>172.04750413282122</v>
+        <f t="shared" si="59"/>
+        <v>75.106617490369345</v>
       </c>
       <c r="DB28" s="4">
-        <f t="shared" si="58"/>
-        <v>168.60655405016479</v>
+        <f t="shared" si="59"/>
+        <v>72.853418965658264</v>
       </c>
       <c r="DC28" s="4">
-        <f t="shared" si="58"/>
-        <v>165.2344229691615</v>
+        <f t="shared" si="59"/>
+        <v>70.667816396688508</v>
       </c>
       <c r="DD28" s="4">
-        <f t="shared" si="58"/>
-        <v>161.92973450977826</v>
+        <f t="shared" si="59"/>
+        <v>68.547781904787854</v>
       </c>
       <c r="DE28" s="4">
-        <f t="shared" si="58"/>
-        <v>158.6911398195827</v>
+        <f t="shared" si="59"/>
+        <v>66.491348447644214</v>
       </c>
       <c r="DF28" s="4">
-        <f t="shared" si="58"/>
-        <v>155.51731702319105</v>
+        <f t="shared" si="59"/>
+        <v>64.496607994214884</v>
       </c>
       <c r="DG28" s="4">
-        <f t="shared" si="58"/>
-        <v>152.40697068272723</v>
+        <f t="shared" si="59"/>
+        <v>62.561709754388438</v>
       </c>
       <c r="DH28" s="4">
-        <f t="shared" si="58"/>
-        <v>149.35883126907268</v>
+        <f t="shared" si="59"/>
+        <v>60.684858461756782</v>
       </c>
     </row>
     <row r="29" spans="1:112" x14ac:dyDescent="0.2">
@@ -2342,44 +2352,44 @@
         <v>0.81814333853867016</v>
       </c>
       <c r="M29" s="6">
-        <f t="shared" ref="M29:Q29" si="59">M28/M30</f>
-        <v>0.75691858485700525</v>
+        <f t="shared" ref="M29:Q29" si="60">M28/M30</f>
+        <v>0.75716130663112458</v>
       </c>
       <c r="N29" s="6">
-        <f t="shared" si="59"/>
-        <v>1.0259879304598152</v>
+        <f t="shared" si="60"/>
+        <v>1.0276968259308041</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="59"/>
-        <v>1.2721454271829251</v>
+        <f t="shared" si="60"/>
+        <v>1.2764524715733849</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="59"/>
-        <v>1.5581073227624973</v>
+        <f t="shared" si="60"/>
+        <v>1.5677019895768765</v>
       </c>
       <c r="Q29" s="6">
-        <f t="shared" si="59"/>
-        <v>1.9839709847281966</v>
+        <f t="shared" si="60"/>
+        <v>2.0039460309739514</v>
       </c>
       <c r="R29" s="6">
-        <f t="shared" ref="R29:V29" si="60">R28/R30</f>
-        <v>2.3389266530021375</v>
+        <f t="shared" ref="R29:V29" si="61">R28/R30</f>
+        <v>2.3671522750103939</v>
       </c>
       <c r="S29" s="6">
-        <f t="shared" si="60"/>
-        <v>2.8109016573186483</v>
+        <f t="shared" si="61"/>
+        <v>2.8495267214744451</v>
       </c>
       <c r="T29" s="6">
-        <f t="shared" si="60"/>
-        <v>3.130106763971455</v>
+        <f t="shared" si="61"/>
+        <v>3.181744736126539</v>
       </c>
       <c r="U29" s="6">
-        <f t="shared" si="60"/>
-        <v>3.4828196530055568</v>
+        <f t="shared" si="61"/>
+        <v>3.5506398509945991</v>
       </c>
       <c r="V29" s="6">
-        <f t="shared" si="60"/>
-        <v>3.8726677709290054</v>
+        <f t="shared" si="61"/>
+        <v>3.9605035450654111</v>
       </c>
     </row>
     <row r="30" spans="1:112" x14ac:dyDescent="0.2">
@@ -2437,7 +2447,7 @@
         <v>37</v>
       </c>
       <c r="Y31" s="8">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="32" spans="1:112" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2454,50 +2464,50 @@
         <v>0.65162664601084441</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" ref="M32:Q32" si="61">M15/L15-1</f>
-        <v>0.16776878883808188</v>
+        <f t="shared" ref="M32:Q32" si="62">M15/L15-1</f>
+        <v>0.16814515183491618</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="61"/>
-        <v>0.21432393899537172</v>
+        <f t="shared" si="62"/>
+        <v>0.21602183274098152</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="61"/>
-        <v>0.17547190282892</v>
+        <f t="shared" si="62"/>
+        <v>0.17763003427884638</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="61"/>
-        <v>0.1665332468160774</v>
+        <f t="shared" si="62"/>
+        <v>0.17006300291645826</v>
       </c>
       <c r="Q32" s="7">
-        <f t="shared" si="61"/>
-        <v>0.22496773335563702</v>
+        <f t="shared" si="62"/>
+        <v>0.23022063707973084</v>
       </c>
       <c r="R32" s="7">
-        <f t="shared" ref="R32" si="62">R15/Q15-1</f>
-        <v>0.13308087045705941</v>
+        <f t="shared" ref="R32" si="63">R15/Q15-1</f>
+        <v>0.13555063019954949</v>
       </c>
       <c r="S32" s="7">
-        <f t="shared" ref="S32" si="63">S15/R15-1</f>
-        <v>0.16316402765365545</v>
+        <f t="shared" ref="S32" si="64">S15/R15-1</f>
+        <v>0.1652473027449497</v>
       </c>
       <c r="T32" s="7">
-        <f t="shared" ref="T32" si="64">T15/S15-1</f>
-        <v>6.3989685080167114E-2</v>
+        <f t="shared" ref="T32" si="65">T15/S15-1</f>
+        <v>6.7419013335729749E-2</v>
       </c>
       <c r="U32" s="7">
-        <f t="shared" ref="U32" si="65">U15/T15-1</f>
-        <v>6.5519004421243254E-2</v>
+        <f t="shared" ref="U32" si="66">U15/T15-1</f>
+        <v>6.9297306963501226E-2</v>
       </c>
       <c r="V32" s="7">
-        <f t="shared" ref="V32" si="66">V15/U15-1</f>
-        <v>6.7044235881183578E-2</v>
+        <f t="shared" ref="V32" si="67">V15/U15-1</f>
+        <v>7.1187784727549497E-2</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Y32" s="8">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="33" spans="1:108" x14ac:dyDescent="0.2">
@@ -2509,11 +2519,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="8">
-        <f t="shared" ref="K33:L33" si="67">K27/K26</f>
+        <f t="shared" ref="K33:L33" si="68">K27/K26</f>
         <v>0</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>-0.5665410309473039</v>
       </c>
       <c r="M33" s="8">
@@ -2551,7 +2561,7 @@
       </c>
       <c r="Y33" s="2">
         <f>NPV(Y32,M41:DH41)</f>
-        <v>6318.4816120891055</v>
+        <v>6888.7447062941055</v>
       </c>
     </row>
     <row r="34" spans="1:108" x14ac:dyDescent="0.2">
@@ -2560,7 +2570,7 @@
       </c>
       <c r="Y34" s="2">
         <f>Y33/main!D3</f>
-        <v>26.466618127661352</v>
+        <v>28.855314728082742</v>
       </c>
     </row>
     <row r="35" spans="1:108" x14ac:dyDescent="0.2">
@@ -2572,18 +2582,18 @@
         <v>0.2290720311486048</v>
       </c>
       <c r="K35" s="8">
-        <f t="shared" ref="K35:L35" si="68">K17/K15</f>
+        <f t="shared" ref="K35:L35" si="69">K17/K15</f>
         <v>0.34430673896204483</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0.51483175049829988</v>
       </c>
       <c r="M35" s="8">
         <v>0.64</v>
       </c>
       <c r="N35" s="8">
-        <f t="shared" ref="N35" si="69">M35*1.05</f>
+        <f t="shared" ref="N35" si="70">M35*1.05</f>
         <v>0.67200000000000004</v>
       </c>
       <c r="O35" s="8">
@@ -2591,31 +2601,31 @@
         <v>0.6787200000000001</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" ref="P35:V35" si="70">O35*1.01</f>
+        <f t="shared" ref="P35:V35" si="71">O35*1.01</f>
         <v>0.68550720000000009</v>
       </c>
       <c r="Q35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.69236227200000011</v>
       </c>
       <c r="R35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.69928589472000013</v>
       </c>
       <c r="S35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.70627875366720017</v>
       </c>
       <c r="T35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.71334154120387216</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.72047495661591088</v>
       </c>
       <c r="V35" s="8">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>0.72767970618207001</v>
       </c>
       <c r="X35" s="2" t="s">
@@ -2623,7 +2633,7 @@
       </c>
       <c r="Y35" s="8">
         <f>Y34/main!D2-1</f>
-        <v>0.32068952732841094</v>
+        <v>0.43988596447518691</v>
       </c>
     </row>
     <row r="36" spans="1:108" x14ac:dyDescent="0.2">
@@ -2635,11 +2645,11 @@
         <v>0.48445165476963009</v>
       </c>
       <c r="K36" s="8">
-        <f t="shared" ref="K36:L36" si="71">K22/K15</f>
+        <f t="shared" ref="K36:L36" si="72">K22/K15</f>
         <v>0.26065065840433771</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>0.18891546488451164</v>
       </c>
       <c r="M36" s="8">
@@ -2647,19 +2657,19 @@
         <v>0.18513715558682139</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" ref="N36:Q36" si="72">M36*0.98</f>
+        <f t="shared" ref="N36:Q36" si="73">M36*0.98</f>
         <v>0.18143441247508496</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.17780572422558324</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.17424960974107156</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.17076461754625014</v>
       </c>
       <c r="R36" s="8">
@@ -2667,19 +2677,19 @@
         <v>0.17076461754625014</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" ref="S36:V36" si="73">R36*1</f>
+        <f t="shared" ref="S36:V36" si="74">R36*1</f>
         <v>0.17076461754625014</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.17076461754625014</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.17076461754625014</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0.17076461754625014</v>
       </c>
     </row>
@@ -2692,52 +2702,52 @@
         <v>-0.47631408176508766</v>
       </c>
       <c r="K37" s="8">
-        <f t="shared" ref="K37:P37" si="74">K41/K15</f>
+        <f t="shared" ref="K37:P37" si="75">K41/K15</f>
         <v>1.5608055770720377E-2</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.25977254074334621</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="74"/>
-        <v>0.39727453186252287</v>
+        <f t="shared" si="75"/>
+        <v>0.39727388789779527</v>
       </c>
       <c r="N37" s="8">
-        <f t="shared" si="74"/>
-        <v>0.44345468854897785</v>
+        <f t="shared" si="75"/>
+        <v>0.44343018340692542</v>
       </c>
       <c r="O37" s="8">
-        <f t="shared" si="74"/>
-        <v>0.46776907618868496</v>
+        <f t="shared" si="75"/>
+        <v>0.46768776790424466</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="74"/>
-        <v>0.49112833868132605</v>
+        <f t="shared" si="75"/>
+        <v>0.49091423443198645</v>
       </c>
       <c r="Q37" s="8">
         <f>Q41/Q15</f>
-        <v>0.51051474796406227</v>
+        <v>0.51008802569130385</v>
       </c>
       <c r="R37" s="8">
-        <f t="shared" ref="R37:V37" si="75">R41/R15</f>
-        <v>0.53116404759126035</v>
+        <f t="shared" ref="R37:V37" si="76">R41/R15</f>
+        <v>0.53061411798444003</v>
       </c>
       <c r="S37" s="8">
-        <f t="shared" si="75"/>
-        <v>0.54880335510425537</v>
+        <f t="shared" si="76"/>
+        <v>0.5481598625044658</v>
       </c>
       <c r="T37" s="8">
-        <f t="shared" si="75"/>
-        <v>0.57437144342964153</v>
+        <f t="shared" si="76"/>
+        <v>0.57340951908282167</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="75"/>
-        <v>0.59979587526222333</v>
+        <f t="shared" si="76"/>
+        <v>0.59842222437177273</v>
       </c>
       <c r="V37" s="8">
-        <f t="shared" si="75"/>
-        <v>0.62502919772555032</v>
+        <f t="shared" si="76"/>
+        <v>0.62314036707604759</v>
       </c>
     </row>
     <row r="39" spans="1:108" x14ac:dyDescent="0.2">
@@ -2778,396 +2788,396 @@
         <v>-73.400000000000006</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" ref="K41:L41" si="76">K39-K40</f>
+        <f t="shared" ref="K41:L41" si="77">K39-K40</f>
         <v>4.0300000000000011</v>
       </c>
       <c r="L41" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>110.78</v>
       </c>
       <c r="M41" s="4">
         <f>M28*1.1</f>
-        <v>197.84073049487708</v>
+        <v>197.90417226267016</v>
       </c>
       <c r="N41" s="4">
-        <f t="shared" ref="N41:Q41" si="77">N28*1.1</f>
-        <v>268.16913430582991</v>
+        <f t="shared" ref="N41:Q41" si="78">N28*1.1</f>
+        <v>268.61579942290285</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="77"/>
-        <v>332.50891924807786</v>
+        <f t="shared" si="78"/>
+        <v>333.63467943620088</v>
       </c>
       <c r="P41" s="4">
-        <f t="shared" si="77"/>
-        <v>407.2526386480319</v>
+        <f t="shared" si="78"/>
+        <v>409.76045907864045</v>
       </c>
       <c r="Q41" s="4">
-        <f t="shared" si="77"/>
-        <v>518.56339208980955</v>
+        <f t="shared" si="78"/>
+        <v>523.78439976486311</v>
       </c>
       <c r="R41" s="4">
-        <f t="shared" ref="R41:V41" si="78">R28*1.1</f>
-        <v>611.34046231841319</v>
+        <f t="shared" ref="R41:V41" si="79">R28*1.1</f>
+        <v>618.71797660925426</v>
       </c>
       <c r="S41" s="4">
-        <f t="shared" si="78"/>
-        <v>734.70363703414773</v>
+        <f t="shared" si="79"/>
+        <v>744.79932111546543</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="78"/>
-        <v>818.13635059318506</v>
+        <f t="shared" si="79"/>
+        <v>831.63330302217832</v>
       </c>
       <c r="U41" s="4">
-        <f t="shared" si="78"/>
-        <v>910.32721103380709</v>
+        <f t="shared" si="79"/>
+        <v>928.05381701348995</v>
       </c>
       <c r="V41" s="4">
-        <f t="shared" si="78"/>
-        <v>1012.2243476282252</v>
+        <f t="shared" si="79"/>
+        <v>1035.1825548467896</v>
       </c>
       <c r="W41" s="4">
-        <f t="shared" ref="W41:BB41" si="79">V41*(1+$Y$31)</f>
-        <v>991.97986067566069</v>
+        <f t="shared" ref="W41:BB41" si="80">V41*(1+$Y$31)</f>
+        <v>1004.1270782013859</v>
       </c>
       <c r="X41" s="4">
-        <f t="shared" si="79"/>
-        <v>972.14026346214746</v>
+        <f t="shared" si="80"/>
+        <v>974.00326585534424</v>
       </c>
       <c r="Y41" s="4">
-        <f t="shared" si="79"/>
-        <v>952.69745819290449</v>
+        <f t="shared" si="80"/>
+        <v>944.7831678796839</v>
       </c>
       <c r="Z41" s="4">
-        <f t="shared" si="79"/>
-        <v>933.64350902904641</v>
+        <f t="shared" si="80"/>
+        <v>916.43967284329335</v>
       </c>
       <c r="AA41" s="4">
-        <f t="shared" si="79"/>
-        <v>914.97063884846546</v>
+        <f t="shared" si="80"/>
+        <v>888.94648265799458</v>
       </c>
       <c r="AB41" s="4">
-        <f t="shared" si="79"/>
-        <v>896.67122607149611</v>
+        <f t="shared" si="80"/>
+        <v>862.27808817825473</v>
       </c>
       <c r="AC41" s="4">
-        <f t="shared" si="79"/>
-        <v>878.73780155006614</v>
+        <f t="shared" si="80"/>
+        <v>836.4097455329071</v>
       </c>
       <c r="AD41" s="4">
-        <f t="shared" si="79"/>
-        <v>861.16304551906478</v>
+        <f t="shared" si="80"/>
+        <v>811.3174531669199</v>
       </c>
       <c r="AE41" s="4">
-        <f t="shared" si="79"/>
-        <v>843.93978460868345</v>
+        <f t="shared" si="80"/>
+        <v>786.97792957191234</v>
       </c>
       <c r="AF41" s="4">
-        <f t="shared" si="79"/>
-        <v>827.06098891650981</v>
+        <f t="shared" si="80"/>
+        <v>763.36859168475496</v>
       </c>
       <c r="AG41" s="4">
-        <f t="shared" si="79"/>
-        <v>810.51976913817964</v>
+        <f t="shared" si="80"/>
+        <v>740.46753393421227</v>
       </c>
       <c r="AH41" s="4">
-        <f t="shared" si="79"/>
-        <v>794.309373755416</v>
+        <f t="shared" si="80"/>
+        <v>718.25350791618587</v>
       </c>
       <c r="AI41" s="4">
-        <f t="shared" si="79"/>
-        <v>778.42318628030762</v>
+        <f t="shared" si="80"/>
+        <v>696.70590267870023</v>
       </c>
       <c r="AJ41" s="4">
-        <f t="shared" si="79"/>
-        <v>762.85472255470142</v>
+        <f t="shared" si="80"/>
+        <v>675.80472559833925</v>
       </c>
       <c r="AK41" s="4">
-        <f t="shared" si="79"/>
-        <v>747.59762810360735</v>
+        <f t="shared" si="80"/>
+        <v>655.53058383038911</v>
       </c>
       <c r="AL41" s="4">
-        <f t="shared" si="79"/>
-        <v>732.64567554153518</v>
+        <f t="shared" si="80"/>
+        <v>635.86466631547739</v>
       </c>
       <c r="AM41" s="4">
-        <f t="shared" si="79"/>
-        <v>717.99276203070451</v>
+        <f t="shared" si="80"/>
+        <v>616.78872632601303</v>
       </c>
       <c r="AN41" s="4">
-        <f t="shared" si="79"/>
-        <v>703.63290679009037</v>
+        <f t="shared" si="80"/>
+        <v>598.28506453623265</v>
       </c>
       <c r="AO41" s="4">
-        <f t="shared" si="79"/>
-        <v>689.56024865428856</v>
+        <f t="shared" si="80"/>
+        <v>580.33651260014562</v>
       </c>
       <c r="AP41" s="4">
-        <f t="shared" si="79"/>
-        <v>675.76904368120279</v>
+        <f t="shared" si="80"/>
+        <v>562.92641722214125</v>
       </c>
       <c r="AQ41" s="4">
-        <f t="shared" si="79"/>
-        <v>662.25366280757873</v>
+        <f t="shared" si="80"/>
+        <v>546.03862470547699</v>
       </c>
       <c r="AR41" s="4">
-        <f t="shared" si="79"/>
-        <v>649.00858955142712</v>
+        <f t="shared" si="80"/>
+        <v>529.65746596431268</v>
       </c>
       <c r="AS41" s="4">
-        <f t="shared" si="79"/>
-        <v>636.02841776039861</v>
+        <f t="shared" si="80"/>
+        <v>513.76774198538328</v>
       </c>
       <c r="AT41" s="4">
-        <f t="shared" si="79"/>
-        <v>623.30784940519061</v>
+        <f t="shared" si="80"/>
+        <v>498.35470972582175</v>
       </c>
       <c r="AU41" s="4">
-        <f t="shared" si="79"/>
-        <v>610.84169241708673</v>
+        <f t="shared" si="80"/>
+        <v>483.40406843404708</v>
       </c>
       <c r="AV41" s="4">
-        <f t="shared" si="79"/>
-        <v>598.62485856874503</v>
+        <f t="shared" si="80"/>
+        <v>468.90194638102565</v>
       </c>
       <c r="AW41" s="4">
-        <f t="shared" si="79"/>
-        <v>586.6523613973701</v>
+        <f t="shared" si="80"/>
+        <v>454.83488798959485</v>
       </c>
       <c r="AX41" s="4">
-        <f t="shared" si="79"/>
-        <v>574.91931416942271</v>
+        <f t="shared" si="80"/>
+        <v>441.189841349907</v>
       </c>
       <c r="AY41" s="4">
-        <f t="shared" si="79"/>
-        <v>563.42092788603429</v>
+        <f t="shared" si="80"/>
+        <v>427.95414610940981</v>
       </c>
       <c r="AZ41" s="4">
-        <f t="shared" si="79"/>
-        <v>552.15250932831361</v>
+        <f t="shared" si="80"/>
+        <v>415.1155217261275</v>
       </c>
       <c r="BA41" s="4">
-        <f t="shared" si="79"/>
-        <v>541.10945914174738</v>
+        <f t="shared" si="80"/>
+        <v>402.66205607434364</v>
       </c>
       <c r="BB41" s="4">
-        <f t="shared" si="79"/>
-        <v>530.28726995891247</v>
+        <f t="shared" si="80"/>
+        <v>390.58219439211331</v>
       </c>
       <c r="BC41" s="4">
-        <f t="shared" ref="BC41:CH41" si="80">BB41*(1+$Y$31)</f>
-        <v>519.68152455973427</v>
+        <f t="shared" ref="BC41:CH41" si="81">BB41*(1+$Y$31)</f>
+        <v>378.86472856034987</v>
       </c>
       <c r="BD41" s="4">
-        <f t="shared" si="80"/>
-        <v>509.28789406853957</v>
+        <f t="shared" si="81"/>
+        <v>367.49878670353939</v>
       </c>
       <c r="BE41" s="4">
-        <f t="shared" si="80"/>
-        <v>499.10213618716875</v>
+        <f t="shared" si="81"/>
+        <v>356.47382310243319</v>
       </c>
       <c r="BF41" s="4">
-        <f t="shared" si="80"/>
-        <v>489.12009346342535</v>
+        <f t="shared" si="81"/>
+        <v>345.77960840936021</v>
       </c>
       <c r="BG41" s="4">
-        <f t="shared" si="80"/>
-        <v>479.33769159415681</v>
+        <f t="shared" si="81"/>
+        <v>335.40622015707942</v>
       </c>
       <c r="BH41" s="4">
-        <f t="shared" si="80"/>
-        <v>469.75093776227368</v>
+        <f t="shared" si="81"/>
+        <v>325.34403355236702</v>
       </c>
       <c r="BI41" s="4">
-        <f t="shared" si="80"/>
-        <v>460.35591900702821</v>
+        <f t="shared" si="81"/>
+        <v>315.583712545796</v>
       </c>
       <c r="BJ41" s="4">
-        <f t="shared" si="80"/>
-        <v>451.14880062688763</v>
+        <f t="shared" si="81"/>
+        <v>306.11620116942214</v>
       </c>
       <c r="BK41" s="4">
-        <f t="shared" si="80"/>
-        <v>442.12582461434988</v>
+        <f t="shared" si="81"/>
+        <v>296.93271513433945</v>
       </c>
       <c r="BL41" s="4">
-        <f t="shared" si="80"/>
-        <v>433.28330812206286</v>
+        <f t="shared" si="81"/>
+        <v>288.02473368030928</v>
       </c>
       <c r="BM41" s="4">
-        <f t="shared" si="80"/>
-        <v>424.61764195962161</v>
+        <f t="shared" si="81"/>
+        <v>279.38399166990001</v>
       </c>
       <c r="BN41" s="4">
-        <f t="shared" si="80"/>
-        <v>416.12528912042916</v>
+        <f t="shared" si="81"/>
+        <v>271.00247191980299</v>
       </c>
       <c r="BO41" s="4">
-        <f t="shared" si="80"/>
-        <v>407.80278333802056</v>
+        <f t="shared" si="81"/>
+        <v>262.87239776220889</v>
       </c>
       <c r="BP41" s="4">
-        <f t="shared" si="80"/>
-        <v>399.64672767126012</v>
+        <f t="shared" si="81"/>
+        <v>254.98622582934263</v>
       </c>
       <c r="BQ41" s="4">
-        <f t="shared" si="80"/>
-        <v>391.65379311783494</v>
+        <f t="shared" si="81"/>
+        <v>247.33663905446235</v>
       </c>
       <c r="BR41" s="4">
-        <f t="shared" si="80"/>
-        <v>383.82071725547826</v>
+        <f t="shared" si="81"/>
+        <v>239.91653988282849</v>
       </c>
       <c r="BS41" s="4">
-        <f t="shared" si="80"/>
-        <v>376.14430291036871</v>
+        <f t="shared" si="81"/>
+        <v>232.71904368634364</v>
       </c>
       <c r="BT41" s="4">
-        <f t="shared" si="80"/>
-        <v>368.6214168521613</v>
+        <f t="shared" si="81"/>
+        <v>225.73747237575333</v>
       </c>
       <c r="BU41" s="4">
-        <f t="shared" si="80"/>
-        <v>361.24898851511807</v>
+        <f t="shared" si="81"/>
+        <v>218.96534820448073</v>
       </c>
       <c r="BV41" s="4">
-        <f t="shared" si="80"/>
-        <v>354.02400874481572</v>
+        <f t="shared" si="81"/>
+        <v>212.39638775834629</v>
       </c>
       <c r="BW41" s="4">
-        <f t="shared" si="80"/>
-        <v>346.94352856991941</v>
+        <f t="shared" si="81"/>
+        <v>206.0244961255959</v>
       </c>
       <c r="BX41" s="4">
-        <f t="shared" si="80"/>
-        <v>340.004657998521</v>
+        <f t="shared" si="81"/>
+        <v>199.84376124182802</v>
       </c>
       <c r="BY41" s="4">
-        <f t="shared" si="80"/>
-        <v>333.2045648385506</v>
+        <f t="shared" si="81"/>
+        <v>193.84844840457316</v>
       </c>
       <c r="BZ41" s="4">
-        <f t="shared" si="80"/>
-        <v>326.54047354177959</v>
+        <f t="shared" si="81"/>
+        <v>188.03299495243596</v>
       </c>
       <c r="CA41" s="4">
-        <f t="shared" si="80"/>
-        <v>320.00966407094398</v>
+        <f t="shared" si="81"/>
+        <v>182.39200510386289</v>
       </c>
       <c r="CB41" s="4">
-        <f t="shared" si="80"/>
-        <v>313.60947078952512</v>
+        <f t="shared" si="81"/>
+        <v>176.92024495074699</v>
       </c>
       <c r="CC41" s="4">
-        <f t="shared" si="80"/>
-        <v>307.33728137373458</v>
+        <f t="shared" si="81"/>
+        <v>171.61263760222457</v>
       </c>
       <c r="CD41" s="4">
-        <f t="shared" si="80"/>
-        <v>301.19053574625991</v>
+        <f t="shared" si="81"/>
+        <v>166.46425847415782</v>
       </c>
       <c r="CE41" s="4">
-        <f t="shared" si="80"/>
-        <v>295.16672503133469</v>
+        <f t="shared" si="81"/>
+        <v>161.47033071993309</v>
       </c>
       <c r="CF41" s="4">
-        <f t="shared" si="80"/>
-        <v>289.26339053070797</v>
+        <f t="shared" si="81"/>
+        <v>156.62622079833508</v>
       </c>
       <c r="CG41" s="4">
-        <f t="shared" si="80"/>
-        <v>283.47812272009378</v>
+        <f t="shared" si="81"/>
+        <v>151.92743417438501</v>
       </c>
       <c r="CH41" s="4">
-        <f t="shared" si="80"/>
-        <v>277.80856026569188</v>
+        <f t="shared" si="81"/>
+        <v>147.36961114915346</v>
       </c>
       <c r="CI41" s="4">
-        <f t="shared" ref="CI41:DD41" si="81">CH41*(1+$Y$31)</f>
-        <v>272.25238906037805</v>
+        <f t="shared" ref="CI41:DD41" si="82">CH41*(1+$Y$31)</f>
+        <v>142.94852281467885</v>
       </c>
       <c r="CJ41" s="4">
-        <f t="shared" si="81"/>
-        <v>266.80734127917049</v>
+        <f t="shared" si="82"/>
+        <v>138.66006713023847</v>
       </c>
       <c r="CK41" s="4">
-        <f t="shared" si="81"/>
-        <v>261.47119445358709</v>
+        <f t="shared" si="82"/>
+        <v>134.50026511633132</v>
       </c>
       <c r="CL41" s="4">
-        <f t="shared" si="81"/>
-        <v>256.24177056451532</v>
+        <f t="shared" si="82"/>
+        <v>130.46525716284137</v>
       </c>
       <c r="CM41" s="4">
-        <f t="shared" si="81"/>
-        <v>251.116935153225</v>
+        <f t="shared" si="82"/>
+        <v>126.55129944795613</v>
       </c>
       <c r="CN41" s="4">
-        <f t="shared" si="81"/>
-        <v>246.09459645016051</v>
+        <f t="shared" si="82"/>
+        <v>122.75476046451743</v>
       </c>
       <c r="CO41" s="4">
-        <f t="shared" si="81"/>
-        <v>241.1727045211573</v>
+        <f t="shared" si="82"/>
+        <v>119.0721176505819</v>
       </c>
       <c r="CP41" s="4">
-        <f t="shared" si="81"/>
-        <v>236.34925043073414</v>
+        <f t="shared" si="82"/>
+        <v>115.49995412106445</v>
       </c>
       <c r="CQ41" s="4">
-        <f t="shared" si="81"/>
-        <v>231.62226542211945</v>
+        <f t="shared" si="82"/>
+        <v>112.03495549743251</v>
       </c>
       <c r="CR41" s="4">
-        <f t="shared" si="81"/>
-        <v>226.98982011367707</v>
+        <f t="shared" si="82"/>
+        <v>108.67390683250953</v>
       </c>
       <c r="CS41" s="4">
-        <f t="shared" si="81"/>
-        <v>222.45002371140353</v>
+        <f t="shared" si="82"/>
+        <v>105.41368962753424</v>
       </c>
       <c r="CT41" s="4">
-        <f t="shared" si="81"/>
-        <v>218.00102323717545</v>
+        <f t="shared" si="82"/>
+        <v>102.25127893870821</v>
       </c>
       <c r="CU41" s="4">
-        <f t="shared" si="81"/>
-        <v>213.64100277243193</v>
+        <f t="shared" si="82"/>
+        <v>99.183740570546959</v>
       </c>
       <c r="CV41" s="4">
-        <f t="shared" si="81"/>
-        <v>209.36818271698328</v>
+        <f t="shared" si="82"/>
+        <v>96.208228353430542</v>
       </c>
       <c r="CW41" s="4">
-        <f t="shared" si="81"/>
-        <v>205.18081906264362</v>
+        <f t="shared" si="82"/>
+        <v>93.321981502827626</v>
       </c>
       <c r="CX41" s="4">
-        <f t="shared" si="81"/>
-        <v>201.07720268139076</v>
+        <f t="shared" si="82"/>
+        <v>90.522322057742798</v>
       </c>
       <c r="CY41" s="4">
-        <f t="shared" si="81"/>
-        <v>197.05565862776294</v>
+        <f t="shared" si="82"/>
+        <v>87.806652396010506</v>
       </c>
       <c r="CZ41" s="4">
-        <f t="shared" si="81"/>
-        <v>193.11454545520766</v>
+        <f t="shared" si="82"/>
+        <v>85.17245282413019</v>
       </c>
       <c r="DA41" s="4">
-        <f t="shared" si="81"/>
-        <v>189.2522545461035</v>
+        <f t="shared" si="82"/>
+        <v>82.617279239406287</v>
       </c>
       <c r="DB41" s="4">
-        <f t="shared" si="81"/>
-        <v>185.46720945518143</v>
+        <f t="shared" si="82"/>
+        <v>80.138760862224089</v>
       </c>
       <c r="DC41" s="4">
-        <f t="shared" si="81"/>
-        <v>181.7578652660778</v>
+        <f t="shared" si="82"/>
+        <v>77.734598036357369</v>
       </c>
       <c r="DD41" s="4">
-        <f t="shared" si="81"/>
-        <v>178.12270796075623</v>
+        <f t="shared" si="82"/>
+        <v>75.402560095266651</v>
       </c>
     </row>
     <row r="43" spans="1:108" x14ac:dyDescent="0.2">
@@ -3180,43 +3190,43 @@
       </c>
       <c r="M43" s="2">
         <f>L43+M28</f>
-        <v>198.94520954079732</v>
+        <v>199.00288387515468</v>
       </c>
       <c r="N43" s="2">
-        <f t="shared" ref="N43:Q43" si="82">M43+N28</f>
-        <v>442.73533163700631</v>
+        <f t="shared" ref="N43:Q43" si="83">M43+N28</f>
+        <v>443.1990651687027</v>
       </c>
       <c r="O43" s="2">
-        <f t="shared" si="82"/>
-        <v>745.01616731707713</v>
+        <f t="shared" si="83"/>
+        <v>746.50331920161261</v>
       </c>
       <c r="P43" s="2">
-        <f t="shared" si="82"/>
-        <v>1115.2458388152879</v>
+        <f t="shared" si="83"/>
+        <v>1119.012827454922</v>
       </c>
       <c r="Q43" s="2">
-        <f t="shared" si="82"/>
-        <v>1586.6671043514784</v>
+        <f t="shared" si="83"/>
+        <v>1595.1804636047975</v>
       </c>
       <c r="R43" s="2">
-        <f t="shared" ref="R43" si="83">Q43+R28</f>
-        <v>2142.4311610045816</v>
+        <f t="shared" ref="R43" si="84">Q43+R28</f>
+        <v>2157.6513514313924</v>
       </c>
       <c r="S43" s="2">
-        <f t="shared" ref="S43" si="84">R43+S28</f>
-        <v>2810.3435583083519</v>
+        <f t="shared" ref="S43" si="85">R43+S28</f>
+        <v>2834.7416433545427</v>
       </c>
       <c r="T43" s="2">
-        <f t="shared" ref="T43" si="85">S43+T28</f>
-        <v>3554.103877029429</v>
+        <f t="shared" ref="T43" si="86">S43+T28</f>
+        <v>3590.7719188292504</v>
       </c>
       <c r="U43" s="2">
-        <f t="shared" ref="U43" si="86">T43+U28</f>
-        <v>4381.6740688783448</v>
+        <f t="shared" ref="U43" si="87">T43+U28</f>
+        <v>4434.4572070233316</v>
       </c>
       <c r="V43" s="2">
-        <f t="shared" ref="V43" si="87">U43+V28</f>
-        <v>5301.8780212676402</v>
+        <f t="shared" ref="V43" si="88">U43+V28</f>
+        <v>5375.5322568840493</v>
       </c>
     </row>
     <row r="45" spans="1:108" x14ac:dyDescent="0.2">

--- a/ADMA.xlsx
+++ b/ADMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1219BE26-B512-47D0-92A9-4E324C2E9616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC1EBD3-26CF-4AC1-B740-1991E253CD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="525" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{0C2E6319-0109-49A4-A46A-629FFB4D718F}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{0C2E6319-0109-49A4-A46A-629FFB4D718F}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -286,6 +286,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -824,10 +825,10 @@
   <dimension ref="A1:DH47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomRight" activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1753,43 +1754,43 @@
       </c>
       <c r="M24" s="2">
         <f>L43*$Y$30</f>
-        <v>1.1454000000000002</v>
+        <v>0.76360000000000017</v>
       </c>
       <c r="N24" s="2">
         <f>M43*$Y$30</f>
-        <v>11.94017303250928</v>
+        <v>7.9480504750061867</v>
       </c>
       <c r="O24" s="2">
         <f>N43*$Y$30</f>
-        <v>26.591943910122161</v>
+        <v>17.589746653931012</v>
       </c>
       <c r="P24" s="2">
         <f>O43*$Y$30</f>
-        <v>44.790199152096754</v>
+        <v>29.437447381951767</v>
       </c>
       <c r="Q24" s="2">
         <f>P43*$Y$30</f>
-        <v>67.140769647295315</v>
+        <v>43.852680756147564</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ref="R24:V24" si="50">Q43*$Y$30</f>
-        <v>95.710827816287846</v>
+        <v>62.163482593182316</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" si="50"/>
-        <v>129.45908108588355</v>
+        <v>83.602221997195983</v>
       </c>
       <c r="T24" s="2">
         <f t="shared" si="50"/>
-        <v>170.08449860127254</v>
+        <v>109.23675692691947</v>
       </c>
       <c r="U24" s="2">
         <f t="shared" si="50"/>
-        <v>215.44631512975502</v>
+        <v>137.55517930899819</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" si="50"/>
-        <v>266.06743242139987</v>
+        <v>168.84123094482555</v>
       </c>
     </row>
     <row r="25" spans="1:112" x14ac:dyDescent="0.2">
@@ -1824,43 +1825,43 @@
       </c>
       <c r="M26" s="2">
         <f>M23+M24-M25</f>
-        <v>227.7378276900692</v>
+        <v>227.3560276900692</v>
       </c>
       <c r="N26" s="2">
         <f>N23+N24-N25</f>
-        <v>309.1090902449975</v>
+        <v>305.11696768749442</v>
       </c>
       <c r="O26" s="2">
         <f>O23+O24-O25</f>
-        <v>383.92943548469606</v>
+        <v>374.9272382285049</v>
       </c>
       <c r="P26" s="2">
         <f>P23+P24-P25</f>
-        <v>471.53102310545501</v>
+        <v>456.17827133531</v>
       </c>
       <c r="Q26" s="2">
         <f>Q23+Q24-Q25</f>
-        <v>602.74384322769049</v>
+        <v>579.45575433654278</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ref="R26:V26" si="52">R23+R24-R25</f>
-        <v>711.98846560328457</v>
+        <v>678.44112038017897</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" si="52"/>
-        <v>857.0763188900637</v>
+        <v>811.21945980137616</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" si="52"/>
-        <v>957.00034870216143</v>
+        <v>896.15260702780836</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" si="52"/>
-        <v>1067.9560610051667</v>
+        <v>990.06492518440973</v>
       </c>
       <c r="V26" s="2">
         <f t="shared" si="52"/>
-        <v>1191.2342403300224</v>
+        <v>1094.0080388534482</v>
       </c>
     </row>
     <row r="27" spans="1:112" x14ac:dyDescent="0.2">
@@ -1878,43 +1879,43 @@
       </c>
       <c r="M27" s="2">
         <f>M26*M33</f>
-        <v>47.824943814914526</v>
+        <v>47.74476581491453</v>
       </c>
       <c r="N27" s="2">
         <f t="shared" ref="N27:Q27" si="53">N26*N33</f>
-        <v>64.912908951449467</v>
+        <v>64.074563214373825</v>
       </c>
       <c r="O27" s="2">
         <f t="shared" si="53"/>
-        <v>80.625181451786176</v>
+        <v>78.734720027986029</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" si="53"/>
-        <v>99.021514852145543</v>
+        <v>95.7974369804151</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" si="53"/>
-        <v>126.576207077815</v>
+        <v>121.68570841067398</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ref="R27:V27" si="54">R26*R33</f>
-        <v>149.51757777668976</v>
+        <v>142.47263527983759</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" si="54"/>
-        <v>179.98602696691336</v>
+        <v>170.35608655828898</v>
       </c>
       <c r="T27" s="2">
         <f t="shared" si="54"/>
-        <v>200.9700732274539</v>
+        <v>188.19204747583976</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" si="54"/>
-        <v>224.27077281108501</v>
+        <v>207.91363428872603</v>
       </c>
       <c r="V27" s="2">
         <f t="shared" si="54"/>
-        <v>250.15919046930469</v>
+        <v>229.74168815922411</v>
       </c>
     </row>
     <row r="28" spans="1:112" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1936,403 +1937,403 @@
       </c>
       <c r="M28" s="4">
         <f t="shared" si="55"/>
-        <v>179.91288387515468</v>
+        <v>179.61126187515467</v>
       </c>
       <c r="N28" s="4">
         <f t="shared" si="55"/>
-        <v>244.19618129354802</v>
+        <v>241.0424044731206</v>
       </c>
       <c r="O28" s="4">
         <f t="shared" si="55"/>
-        <v>303.30425403290985</v>
+        <v>296.19251820051886</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="55"/>
-        <v>372.50950825330949</v>
+        <v>360.38083435489489</v>
       </c>
       <c r="Q28" s="4">
         <f t="shared" si="55"/>
-        <v>476.16763614987548</v>
+        <v>457.77004592586877</v>
       </c>
       <c r="R28" s="4">
         <f t="shared" ref="R28:V28" si="56">R26-R27</f>
-        <v>562.47088782659478</v>
+        <v>535.96848510034135</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="56"/>
-        <v>677.09029192315029</v>
+        <v>640.86337324308715</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" si="56"/>
-        <v>756.03027547470754</v>
+        <v>707.96055955196857</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="56"/>
-        <v>843.68528819408175</v>
+        <v>782.1512908956837</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="56"/>
-        <v>941.07504986071774</v>
+        <v>864.266350694224</v>
       </c>
       <c r="W28" s="4">
         <f t="shared" ref="W28:BB28" si="57">V28*(1+$Y$31)</f>
-        <v>912.84279836489623</v>
+        <v>838.33836017339729</v>
       </c>
       <c r="X28" s="4">
         <f t="shared" si="57"/>
-        <v>885.4575144139493</v>
+        <v>813.18820936819532</v>
       </c>
       <c r="Y28" s="4">
         <f t="shared" si="57"/>
-        <v>858.89378898153075</v>
+        <v>788.79256308714946</v>
       </c>
       <c r="Z28" s="4">
         <f t="shared" si="57"/>
-        <v>833.12697531208482</v>
+        <v>765.128786194535</v>
       </c>
       <c r="AA28" s="4">
         <f t="shared" si="57"/>
-        <v>808.13316605272223</v>
+        <v>742.17492260869892</v>
       </c>
       <c r="AB28" s="4">
         <f t="shared" si="57"/>
-        <v>783.88917107114059</v>
+        <v>719.90967493043797</v>
       </c>
       <c r="AC28" s="4">
         <f t="shared" si="57"/>
-        <v>760.3724959390064</v>
+        <v>698.31238468252479</v>
       </c>
       <c r="AD28" s="4">
         <f t="shared" si="57"/>
-        <v>737.56132106083624</v>
+        <v>677.363013142049</v>
       </c>
       <c r="AE28" s="4">
         <f t="shared" si="57"/>
-        <v>715.43448142901116</v>
+        <v>657.04212274778752</v>
       </c>
       <c r="AF28" s="4">
         <f t="shared" si="57"/>
-        <v>693.97144698614079</v>
+        <v>637.33085906535382</v>
       </c>
       <c r="AG28" s="4">
         <f t="shared" si="57"/>
-        <v>673.15230357655651</v>
+        <v>618.21093329339317</v>
       </c>
       <c r="AH28" s="4">
         <f t="shared" si="57"/>
-        <v>652.95773446925978</v>
+        <v>599.66460529459141</v>
       </c>
       <c r="AI28" s="4">
         <f t="shared" si="57"/>
-        <v>633.36900243518198</v>
+        <v>581.67466713575368</v>
       </c>
       <c r="AJ28" s="4">
         <f t="shared" si="57"/>
-        <v>614.36793236212645</v>
+        <v>564.22442712168106</v>
       </c>
       <c r="AK28" s="4">
         <f t="shared" si="57"/>
-        <v>595.93689439126263</v>
+        <v>547.2976943080306</v>
       </c>
       <c r="AL28" s="4">
         <f t="shared" si="57"/>
-        <v>578.05878755952472</v>
+        <v>530.87876347878966</v>
       </c>
       <c r="AM28" s="4">
         <f t="shared" si="57"/>
-        <v>560.71702393273893</v>
+        <v>514.95240057442595</v>
       </c>
       <c r="AN28" s="4">
         <f t="shared" si="57"/>
-        <v>543.89551321475676</v>
+        <v>499.50382855719317</v>
       </c>
       <c r="AO28" s="4">
         <f t="shared" si="57"/>
-        <v>527.57864781831404</v>
+        <v>484.51871370047735</v>
       </c>
       <c r="AP28" s="4">
         <f t="shared" si="57"/>
-        <v>511.75128838376463</v>
+        <v>469.98315228946302</v>
       </c>
       <c r="AQ28" s="4">
         <f t="shared" si="57"/>
-        <v>496.3987497322517</v>
+        <v>455.88365772077913</v>
       </c>
       <c r="AR28" s="4">
         <f t="shared" si="57"/>
-        <v>481.50678724028415</v>
+        <v>442.20714798915571</v>
       </c>
       <c r="AS28" s="4">
         <f t="shared" si="57"/>
-        <v>467.06158362307559</v>
+        <v>428.94093354948103</v>
       </c>
       <c r="AT28" s="4">
         <f t="shared" si="57"/>
-        <v>453.04973611438334</v>
+        <v>416.07270554299657</v>
       </c>
       <c r="AU28" s="4">
         <f t="shared" si="57"/>
-        <v>439.45824403095185</v>
+        <v>403.59052437670664</v>
       </c>
       <c r="AV28" s="4">
         <f t="shared" si="57"/>
-        <v>426.2744967100233</v>
+        <v>391.48280864540544</v>
       </c>
       <c r="AW28" s="4">
         <f t="shared" si="57"/>
-        <v>413.48626180872259</v>
+        <v>379.73832438604325</v>
       </c>
       <c r="AX28" s="4">
         <f t="shared" si="57"/>
-        <v>401.08167395446088</v>
+        <v>368.34617465446195</v>
       </c>
       <c r="AY28" s="4">
         <f t="shared" si="57"/>
-        <v>389.04922373582707</v>
+        <v>357.29578941482811</v>
       </c>
       <c r="AZ28" s="4">
         <f t="shared" si="57"/>
-        <v>377.37774702375225</v>
+        <v>346.57691573238327</v>
       </c>
       <c r="BA28" s="4">
         <f t="shared" si="57"/>
-        <v>366.05641461303969</v>
+        <v>336.17960826041178</v>
       </c>
       <c r="BB28" s="4">
         <f t="shared" si="57"/>
-        <v>355.07472217464851</v>
+        <v>326.09422001259941</v>
       </c>
       <c r="BC28" s="4">
         <f t="shared" ref="BC28:CH28" si="58">BB28*(1+$Y$31)</f>
-        <v>344.42248050940907</v>
+        <v>316.31139341222143</v>
       </c>
       <c r="BD28" s="4">
         <f t="shared" si="58"/>
-        <v>334.0898060941268</v>
+        <v>306.82205160985478</v>
       </c>
       <c r="BE28" s="4">
         <f t="shared" si="58"/>
-        <v>324.06711191130296</v>
+        <v>297.61739006155915</v>
       </c>
       <c r="BF28" s="4">
         <f t="shared" si="58"/>
-        <v>314.34509855396385</v>
+        <v>288.68886835971239</v>
       </c>
       <c r="BG28" s="4">
         <f t="shared" si="58"/>
-        <v>304.9147455973449</v>
+        <v>280.02820230892098</v>
       </c>
       <c r="BH28" s="4">
         <f t="shared" si="58"/>
-        <v>295.76730322942456</v>
+        <v>271.62735623965335</v>
       </c>
       <c r="BI28" s="4">
         <f t="shared" si="58"/>
-        <v>286.89428413254183</v>
+        <v>263.47853555246377</v>
       </c>
       <c r="BJ28" s="4">
         <f t="shared" si="58"/>
-        <v>278.28745560856555</v>
+        <v>255.57417948588986</v>
       </c>
       <c r="BK28" s="4">
         <f t="shared" si="58"/>
-        <v>269.9388319403086</v>
+        <v>247.90695410131315</v>
       </c>
       <c r="BL28" s="4">
         <f t="shared" si="58"/>
-        <v>261.84066698209932</v>
+        <v>240.46974547827375</v>
       </c>
       <c r="BM28" s="4">
         <f t="shared" si="58"/>
-        <v>253.98544697263634</v>
+        <v>233.25565311392552</v>
       </c>
       <c r="BN28" s="4">
         <f t="shared" si="58"/>
-        <v>246.36588356345723</v>
+        <v>226.25798352050774</v>
       </c>
       <c r="BO28" s="4">
         <f t="shared" si="58"/>
-        <v>238.97490705655352</v>
+        <v>219.4702440148925</v>
       </c>
       <c r="BP28" s="4">
         <f t="shared" si="58"/>
-        <v>231.8056598448569</v>
+        <v>212.88613669444572</v>
       </c>
       <c r="BQ28" s="4">
         <f t="shared" si="58"/>
-        <v>224.8514900495112</v>
+        <v>206.49955259361235</v>
       </c>
       <c r="BR28" s="4">
         <f t="shared" si="58"/>
-        <v>218.10594534802587</v>
+        <v>200.30456601580397</v>
       </c>
       <c r="BS28" s="4">
         <f t="shared" si="58"/>
-        <v>211.56276698758509</v>
+        <v>194.29542903532985</v>
       </c>
       <c r="BT28" s="4">
         <f t="shared" si="58"/>
-        <v>205.21588397795753</v>
+        <v>188.46656616426995</v>
       </c>
       <c r="BU28" s="4">
         <f t="shared" si="58"/>
-        <v>199.05940745861881</v>
+        <v>182.81256917934184</v>
       </c>
       <c r="BV28" s="4">
         <f t="shared" si="58"/>
-        <v>193.08762523486024</v>
+        <v>177.32819210396158</v>
       </c>
       <c r="BW28" s="4">
         <f t="shared" si="58"/>
-        <v>187.29499647781444</v>
+        <v>172.00834634084273</v>
       </c>
       <c r="BX28" s="4">
         <f t="shared" si="58"/>
-        <v>181.67614658348</v>
+        <v>166.84809595061745</v>
       </c>
       <c r="BY28" s="4">
         <f t="shared" si="58"/>
-        <v>176.22586218597559</v>
+        <v>161.84265307209893</v>
       </c>
       <c r="BZ28" s="4">
         <f t="shared" si="58"/>
-        <v>170.93908632039631</v>
+        <v>156.98737347993597</v>
       </c>
       <c r="CA28" s="4">
         <f t="shared" si="58"/>
-        <v>165.81091373078442</v>
+        <v>152.27775227553789</v>
       </c>
       <c r="CB28" s="4">
         <f t="shared" si="58"/>
-        <v>160.8365863188609</v>
+        <v>147.70941970727176</v>
       </c>
       <c r="CC28" s="4">
         <f t="shared" si="58"/>
-        <v>156.01148872929505</v>
+        <v>143.27813711605361</v>
       </c>
       <c r="CD28" s="4">
         <f t="shared" si="58"/>
-        <v>151.3311440674162</v>
+        <v>138.97979300257199</v>
       </c>
       <c r="CE28" s="4">
         <f t="shared" si="58"/>
-        <v>146.7912097453937</v>
+        <v>134.81039921249484</v>
       </c>
       <c r="CF28" s="4">
         <f t="shared" si="58"/>
-        <v>142.38747345303187</v>
+        <v>130.76608723612</v>
       </c>
       <c r="CG28" s="4">
         <f t="shared" si="58"/>
-        <v>138.11584924944091</v>
+        <v>126.8431046190364</v>
       </c>
       <c r="CH28" s="4">
         <f t="shared" si="58"/>
-        <v>133.97237377195768</v>
+        <v>123.03781148046529</v>
       </c>
       <c r="CI28" s="4">
         <f t="shared" ref="CI28:DH28" si="59">CH28*(1+$Y$31)</f>
-        <v>129.95320255879895</v>
+        <v>119.34667713605133</v>
       </c>
       <c r="CJ28" s="4">
         <f t="shared" si="59"/>
-        <v>126.05460648203498</v>
+        <v>115.76627682196978</v>
       </c>
       <c r="CK28" s="4">
         <f t="shared" si="59"/>
-        <v>122.27296828757393</v>
+        <v>112.29328851731069</v>
       </c>
       <c r="CL28" s="4">
         <f t="shared" si="59"/>
-        <v>118.6047792389467</v>
+        <v>108.92448986179136</v>
       </c>
       <c r="CM28" s="4">
         <f t="shared" si="59"/>
-        <v>115.0466358617783</v>
+        <v>105.65675516593761</v>
       </c>
       <c r="CN28" s="4">
         <f t="shared" si="59"/>
-        <v>111.59523678592495</v>
+        <v>102.48705251095949</v>
       </c>
       <c r="CO28" s="4">
         <f t="shared" si="59"/>
-        <v>108.2473796823472</v>
+        <v>99.412440935630698</v>
       </c>
       <c r="CP28" s="4">
         <f t="shared" si="59"/>
-        <v>104.99995829187678</v>
+        <v>96.430067707561776</v>
       </c>
       <c r="CQ28" s="4">
         <f t="shared" si="59"/>
-        <v>101.84995954312048</v>
+        <v>93.537165676334922</v>
       </c>
       <c r="CR28" s="4">
         <f t="shared" si="59"/>
-        <v>98.794460756826865</v>
+        <v>90.731050706044869</v>
       </c>
       <c r="CS28" s="4">
         <f t="shared" si="59"/>
-        <v>95.830626934122051</v>
+        <v>88.009119184863522</v>
       </c>
       <c r="CT28" s="4">
         <f t="shared" si="59"/>
-        <v>92.955708126098386</v>
+        <v>85.368845609317617</v>
       </c>
       <c r="CU28" s="4">
         <f t="shared" si="59"/>
-        <v>90.167036882315429</v>
+        <v>82.807780241038088</v>
       </c>
       <c r="CV28" s="4">
         <f t="shared" si="59"/>
-        <v>87.462025775845959</v>
+        <v>80.323546833806944</v>
       </c>
       <c r="CW28" s="4">
         <f t="shared" si="59"/>
-        <v>84.838165002570577</v>
+        <v>77.913840428792739</v>
       </c>
       <c r="CX28" s="4">
         <f t="shared" si="59"/>
-        <v>82.293020052493461</v>
+        <v>75.57642521592895</v>
       </c>
       <c r="CY28" s="4">
         <f t="shared" si="59"/>
-        <v>79.824229450918651</v>
+        <v>73.309132459451078</v>
       </c>
       <c r="CZ28" s="4">
         <f t="shared" si="59"/>
-        <v>77.429502567391083</v>
+        <v>71.109858485667544</v>
       </c>
       <c r="DA28" s="4">
         <f t="shared" si="59"/>
-        <v>75.106617490369345</v>
+        <v>68.976562731097516</v>
       </c>
       <c r="DB28" s="4">
         <f t="shared" si="59"/>
-        <v>72.853418965658264</v>
+        <v>66.907265849164588</v>
       </c>
       <c r="DC28" s="4">
         <f t="shared" si="59"/>
-        <v>70.667816396688508</v>
+        <v>64.900047873689644</v>
       </c>
       <c r="DD28" s="4">
         <f t="shared" si="59"/>
-        <v>68.547781904787854</v>
+        <v>62.953046437478953</v>
       </c>
       <c r="DE28" s="4">
         <f t="shared" si="59"/>
-        <v>66.491348447644214</v>
+        <v>61.064455044354581</v>
       </c>
       <c r="DF28" s="4">
         <f t="shared" si="59"/>
-        <v>64.496607994214884</v>
+        <v>59.232521393023944</v>
       </c>
       <c r="DG28" s="4">
         <f t="shared" si="59"/>
-        <v>62.561709754388438</v>
+        <v>57.455545751233224</v>
       </c>
       <c r="DH28" s="4">
         <f t="shared" si="59"/>
-        <v>60.684858461756782</v>
+        <v>55.731879378696227</v>
       </c>
     </row>
     <row r="29" spans="1:112" x14ac:dyDescent="0.2">
@@ -2353,43 +2354,43 @@
       </c>
       <c r="M29" s="6">
         <f t="shared" ref="M29:Q29" si="60">M28/M30</f>
-        <v>0.75716130663112458</v>
+        <v>0.75589193390633869</v>
       </c>
       <c r="N29" s="6">
         <f t="shared" si="60"/>
-        <v>1.0276968259308041</v>
+        <v>1.0144241923831432</v>
       </c>
       <c r="O29" s="6">
         <f t="shared" si="60"/>
-        <v>1.2764524715733849</v>
+        <v>1.2465228129559112</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="60"/>
-        <v>1.5677019895768765</v>
+        <v>1.5166586046962307</v>
       </c>
       <c r="Q29" s="6">
         <f t="shared" si="60"/>
-        <v>2.0039460309739514</v>
+        <v>1.9265199836957632</v>
       </c>
       <c r="R29" s="6">
         <f t="shared" ref="R29:V29" si="61">R28/R30</f>
-        <v>2.3671522750103939</v>
+        <v>2.255617217348826</v>
       </c>
       <c r="S29" s="6">
         <f t="shared" si="61"/>
-        <v>2.8495267214744451</v>
+        <v>2.6970661500456079</v>
       </c>
       <c r="T29" s="6">
         <f t="shared" si="61"/>
-        <v>3.181744736126539</v>
+        <v>2.9794438884412537</v>
       </c>
       <c r="U29" s="6">
         <f t="shared" si="61"/>
-        <v>3.5506398509945991</v>
+        <v>3.2916747296916595</v>
       </c>
       <c r="V29" s="6">
         <f t="shared" si="61"/>
-        <v>3.9605035450654111</v>
+        <v>3.6372550162835848</v>
       </c>
     </row>
     <row r="30" spans="1:112" x14ac:dyDescent="0.2">
@@ -2438,15 +2439,15 @@
       <c r="X30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y30" s="8">
-        <v>0.06</v>
+      <c r="Y30" s="9">
+        <v>0.04</v>
       </c>
     </row>
     <row r="31" spans="1:112" x14ac:dyDescent="0.2">
       <c r="X31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y31" s="8">
+      <c r="Y31" s="9">
         <v>-0.03</v>
       </c>
     </row>
@@ -2506,7 +2507,7 @@
       <c r="X32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Y32" s="8">
+      <c r="Y32" s="9">
         <v>0.09</v>
       </c>
     </row>
@@ -2561,16 +2562,16 @@
       </c>
       <c r="Y33" s="2">
         <f>NPV(Y32,M41:DH41)</f>
-        <v>6888.7447062941055</v>
+        <v>6435.8260786932642</v>
       </c>
     </row>
     <row r="34" spans="1:108" x14ac:dyDescent="0.2">
       <c r="X34" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Y34" s="6">
         <f>Y33/main!D3</f>
-        <v>28.855314728082742</v>
+        <v>26.958146215843843</v>
       </c>
     </row>
     <row r="35" spans="1:108" x14ac:dyDescent="0.2">
@@ -2633,7 +2634,7 @@
       </c>
       <c r="Y35" s="8">
         <f>Y34/main!D2-1</f>
-        <v>0.43988596447518691</v>
+        <v>0.3452168770381161</v>
       </c>
     </row>
     <row r="36" spans="1:108" x14ac:dyDescent="0.2">
@@ -2711,43 +2712,43 @@
       </c>
       <c r="M37" s="8">
         <f t="shared" si="75"/>
-        <v>0.39727388789779527</v>
+        <v>0.39660786253021424</v>
       </c>
       <c r="N37" s="8">
         <f t="shared" si="75"/>
-        <v>0.44343018340692542</v>
+        <v>0.43770331320568528</v>
       </c>
       <c r="O37" s="8">
         <f t="shared" si="75"/>
-        <v>0.46768776790424466</v>
+        <v>0.45672164457049574</v>
       </c>
       <c r="P37" s="8">
         <f t="shared" si="75"/>
-        <v>0.49091423443198645</v>
+        <v>0.47493037756499196</v>
       </c>
       <c r="Q37" s="8">
         <f>Q41/Q15</f>
-        <v>0.51008802569130385</v>
+        <v>0.49037986041001735</v>
       </c>
       <c r="R37" s="8">
         <f t="shared" ref="R37:V37" si="76">R41/R15</f>
-        <v>0.53061411798444003</v>
+        <v>0.50561273684381336</v>
       </c>
       <c r="S37" s="8">
         <f t="shared" si="76"/>
-        <v>0.5481598625044658</v>
+        <v>0.51883121461288184</v>
       </c>
       <c r="T37" s="8">
         <f t="shared" si="76"/>
-        <v>0.57340951908282167</v>
+        <v>0.53695114752832473</v>
       </c>
       <c r="U37" s="8">
         <f t="shared" si="76"/>
-        <v>0.59842222437177273</v>
+        <v>0.55477643363312568</v>
       </c>
       <c r="V37" s="8">
         <f t="shared" si="76"/>
-        <v>0.62314036707604759</v>
+        <v>0.57228087292589835</v>
       </c>
     </row>
     <row r="39" spans="1:108" x14ac:dyDescent="0.2">
@@ -2797,387 +2798,387 @@
       </c>
       <c r="M41" s="4">
         <f>M28*1.1</f>
-        <v>197.90417226267016</v>
+        <v>197.57238806267014</v>
       </c>
       <c r="N41" s="4">
         <f t="shared" ref="N41:Q41" si="78">N28*1.1</f>
-        <v>268.61579942290285</v>
+        <v>265.14664492043266</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" si="78"/>
-        <v>333.63467943620088</v>
+        <v>325.81177002057075</v>
       </c>
       <c r="P41" s="4">
         <f t="shared" si="78"/>
-        <v>409.76045907864045</v>
+        <v>396.4189177903844</v>
       </c>
       <c r="Q41" s="4">
         <f t="shared" si="78"/>
-        <v>523.78439976486311</v>
+        <v>503.54705051845571</v>
       </c>
       <c r="R41" s="4">
         <f t="shared" ref="R41:V41" si="79">R28*1.1</f>
-        <v>618.71797660925426</v>
+        <v>589.56533361037555</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="79"/>
-        <v>744.79932111546543</v>
+        <v>704.94971056739598</v>
       </c>
       <c r="T41" s="4">
         <f t="shared" si="79"/>
-        <v>831.63330302217832</v>
+        <v>778.75661550716552</v>
       </c>
       <c r="U41" s="4">
         <f t="shared" si="79"/>
-        <v>928.05381701348995</v>
+        <v>860.36641998525215</v>
       </c>
       <c r="V41" s="4">
         <f t="shared" si="79"/>
-        <v>1035.1825548467896</v>
+        <v>950.69298576364645</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" ref="W41:BB41" si="80">V41*(1+$Y$31)</f>
-        <v>1004.1270782013859</v>
+        <v>922.17219619073705</v>
       </c>
       <c r="X41" s="4">
         <f t="shared" si="80"/>
-        <v>974.00326585534424</v>
+        <v>894.50703030501495</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" si="80"/>
-        <v>944.7831678796839</v>
+        <v>867.67181939586453</v>
       </c>
       <c r="Z41" s="4">
         <f t="shared" si="80"/>
-        <v>916.43967284329335</v>
+        <v>841.64166481398854</v>
       </c>
       <c r="AA41" s="4">
         <f t="shared" si="80"/>
-        <v>888.94648265799458</v>
+        <v>816.39241486956882</v>
       </c>
       <c r="AB41" s="4">
         <f t="shared" si="80"/>
-        <v>862.27808817825473</v>
+        <v>791.90064242348171</v>
       </c>
       <c r="AC41" s="4">
         <f t="shared" si="80"/>
-        <v>836.4097455329071</v>
+        <v>768.14362315077722</v>
       </c>
       <c r="AD41" s="4">
         <f t="shared" si="80"/>
-        <v>811.3174531669199</v>
+        <v>745.09931445625386</v>
       </c>
       <c r="AE41" s="4">
         <f t="shared" si="80"/>
-        <v>786.97792957191234</v>
+        <v>722.7463350225662</v>
       </c>
       <c r="AF41" s="4">
         <f t="shared" si="80"/>
-        <v>763.36859168475496</v>
+        <v>701.06394497188921</v>
       </c>
       <c r="AG41" s="4">
         <f t="shared" si="80"/>
-        <v>740.46753393421227</v>
+        <v>680.03202662273247</v>
       </c>
       <c r="AH41" s="4">
         <f t="shared" si="80"/>
-        <v>718.25350791618587</v>
+        <v>659.63106582405044</v>
       </c>
       <c r="AI41" s="4">
         <f t="shared" si="80"/>
-        <v>696.70590267870023</v>
+        <v>639.84213384932889</v>
       </c>
       <c r="AJ41" s="4">
         <f t="shared" si="80"/>
-        <v>675.80472559833925</v>
+        <v>620.646869833849</v>
       </c>
       <c r="AK41" s="4">
         <f t="shared" si="80"/>
-        <v>655.53058383038911</v>
+        <v>602.02746373883349</v>
       </c>
       <c r="AL41" s="4">
         <f t="shared" si="80"/>
-        <v>635.86466631547739</v>
+        <v>583.96663982666848</v>
       </c>
       <c r="AM41" s="4">
         <f t="shared" si="80"/>
-        <v>616.78872632601303</v>
+        <v>566.44764063186847</v>
       </c>
       <c r="AN41" s="4">
         <f t="shared" si="80"/>
-        <v>598.28506453623265</v>
+        <v>549.4542114129124</v>
       </c>
       <c r="AO41" s="4">
         <f t="shared" si="80"/>
-        <v>580.33651260014562</v>
+        <v>532.97058507052498</v>
       </c>
       <c r="AP41" s="4">
         <f t="shared" si="80"/>
-        <v>562.92641722214125</v>
+        <v>516.9814675184092</v>
       </c>
       <c r="AQ41" s="4">
         <f t="shared" si="80"/>
-        <v>546.03862470547699</v>
+        <v>501.47202349285692</v>
       </c>
       <c r="AR41" s="4">
         <f t="shared" si="80"/>
-        <v>529.65746596431268</v>
+        <v>486.4278627880712</v>
       </c>
       <c r="AS41" s="4">
         <f t="shared" si="80"/>
-        <v>513.76774198538328</v>
+        <v>471.83502690442907</v>
       </c>
       <c r="AT41" s="4">
         <f t="shared" si="80"/>
-        <v>498.35470972582175</v>
+        <v>457.67997609729616</v>
       </c>
       <c r="AU41" s="4">
         <f t="shared" si="80"/>
-        <v>483.40406843404708</v>
+        <v>443.94957681437728</v>
       </c>
       <c r="AV41" s="4">
         <f t="shared" si="80"/>
-        <v>468.90194638102565</v>
+        <v>430.63108950994592</v>
       </c>
       <c r="AW41" s="4">
         <f t="shared" si="80"/>
-        <v>454.83488798959485</v>
+        <v>417.71215682464754</v>
       </c>
       <c r="AX41" s="4">
         <f t="shared" si="80"/>
-        <v>441.189841349907</v>
+        <v>405.18079211990812</v>
       </c>
       <c r="AY41" s="4">
         <f t="shared" si="80"/>
-        <v>427.95414610940981</v>
+        <v>393.02536835631088</v>
       </c>
       <c r="AZ41" s="4">
         <f t="shared" si="80"/>
-        <v>415.1155217261275</v>
+        <v>381.23460730562152</v>
       </c>
       <c r="BA41" s="4">
         <f t="shared" si="80"/>
-        <v>402.66205607434364</v>
+        <v>369.79756908645288</v>
       </c>
       <c r="BB41" s="4">
         <f t="shared" si="80"/>
-        <v>390.58219439211331</v>
+        <v>358.70364201385928</v>
       </c>
       <c r="BC41" s="4">
         <f t="shared" ref="BC41:CH41" si="81">BB41*(1+$Y$31)</f>
-        <v>378.86472856034987</v>
+        <v>347.94253275344352</v>
       </c>
       <c r="BD41" s="4">
         <f t="shared" si="81"/>
-        <v>367.49878670353939</v>
+        <v>337.50425677084019</v>
       </c>
       <c r="BE41" s="4">
         <f t="shared" si="81"/>
-        <v>356.47382310243319</v>
+        <v>327.37912906771498</v>
       </c>
       <c r="BF41" s="4">
         <f t="shared" si="81"/>
-        <v>345.77960840936021</v>
+        <v>317.55775519568351</v>
       </c>
       <c r="BG41" s="4">
         <f t="shared" si="81"/>
-        <v>335.40622015707942</v>
+        <v>308.03102253981302</v>
       </c>
       <c r="BH41" s="4">
         <f t="shared" si="81"/>
-        <v>325.34403355236702</v>
+        <v>298.79009186361861</v>
       </c>
       <c r="BI41" s="4">
         <f t="shared" si="81"/>
-        <v>315.583712545796</v>
+        <v>289.82638910771004</v>
       </c>
       <c r="BJ41" s="4">
         <f t="shared" si="81"/>
-        <v>306.11620116942214</v>
+        <v>281.13159743447875</v>
       </c>
       <c r="BK41" s="4">
         <f t="shared" si="81"/>
-        <v>296.93271513433945</v>
+        <v>272.69764951144435</v>
       </c>
       <c r="BL41" s="4">
         <f t="shared" si="81"/>
-        <v>288.02473368030928</v>
+        <v>264.51672002610104</v>
       </c>
       <c r="BM41" s="4">
         <f t="shared" si="81"/>
-        <v>279.38399166990001</v>
+        <v>256.58121842531801</v>
       </c>
       <c r="BN41" s="4">
         <f t="shared" si="81"/>
-        <v>271.00247191980299</v>
+        <v>248.88378187255847</v>
       </c>
       <c r="BO41" s="4">
         <f t="shared" si="81"/>
-        <v>262.87239776220889</v>
+        <v>241.41726841638172</v>
       </c>
       <c r="BP41" s="4">
         <f t="shared" si="81"/>
-        <v>254.98622582934263</v>
+        <v>234.17475036389027</v>
       </c>
       <c r="BQ41" s="4">
         <f t="shared" si="81"/>
-        <v>247.33663905446235</v>
+        <v>227.14950785297356</v>
       </c>
       <c r="BR41" s="4">
         <f t="shared" si="81"/>
-        <v>239.91653988282849</v>
+        <v>220.33502261738434</v>
       </c>
       <c r="BS41" s="4">
         <f t="shared" si="81"/>
-        <v>232.71904368634364</v>
+        <v>213.72497193886281</v>
       </c>
       <c r="BT41" s="4">
         <f t="shared" si="81"/>
-        <v>225.73747237575333</v>
+        <v>207.31322278069692</v>
       </c>
       <c r="BU41" s="4">
         <f t="shared" si="81"/>
-        <v>218.96534820448073</v>
+        <v>201.09382609727601</v>
       </c>
       <c r="BV41" s="4">
         <f t="shared" si="81"/>
-        <v>212.39638775834629</v>
+        <v>195.06101131435773</v>
       </c>
       <c r="BW41" s="4">
         <f t="shared" si="81"/>
-        <v>206.0244961255959</v>
+        <v>189.20918097492699</v>
       </c>
       <c r="BX41" s="4">
         <f t="shared" si="81"/>
-        <v>199.84376124182802</v>
+        <v>183.53290554567917</v>
       </c>
       <c r="BY41" s="4">
         <f t="shared" si="81"/>
-        <v>193.84844840457316</v>
+        <v>178.0269183793088</v>
       </c>
       <c r="BZ41" s="4">
         <f t="shared" si="81"/>
-        <v>188.03299495243596</v>
+        <v>172.68611082792953</v>
       </c>
       <c r="CA41" s="4">
         <f t="shared" si="81"/>
-        <v>182.39200510386289</v>
+        <v>167.50552750309163</v>
       </c>
       <c r="CB41" s="4">
         <f t="shared" si="81"/>
-        <v>176.92024495074699</v>
+        <v>162.48036167799887</v>
       </c>
       <c r="CC41" s="4">
         <f t="shared" si="81"/>
-        <v>171.61263760222457</v>
+        <v>157.60595082765889</v>
       </c>
       <c r="CD41" s="4">
         <f t="shared" si="81"/>
-        <v>166.46425847415782</v>
+        <v>152.87777230282913</v>
       </c>
       <c r="CE41" s="4">
         <f t="shared" si="81"/>
-        <v>161.47033071993309</v>
+        <v>148.29143913374426</v>
       </c>
       <c r="CF41" s="4">
         <f t="shared" si="81"/>
-        <v>156.62622079833508</v>
+        <v>143.84269595973194</v>
       </c>
       <c r="CG41" s="4">
         <f t="shared" si="81"/>
-        <v>151.92743417438501</v>
+        <v>139.52741508093999</v>
       </c>
       <c r="CH41" s="4">
         <f t="shared" si="81"/>
-        <v>147.36961114915346</v>
+        <v>135.34159262851179</v>
       </c>
       <c r="CI41" s="4">
         <f t="shared" ref="CI41:DD41" si="82">CH41*(1+$Y$31)</f>
-        <v>142.94852281467885</v>
+        <v>131.28134484965642</v>
       </c>
       <c r="CJ41" s="4">
         <f t="shared" si="82"/>
-        <v>138.66006713023847</v>
+        <v>127.34290450416673</v>
       </c>
       <c r="CK41" s="4">
         <f t="shared" si="82"/>
-        <v>134.50026511633132</v>
+        <v>123.52261736904173</v>
       </c>
       <c r="CL41" s="4">
         <f t="shared" si="82"/>
-        <v>130.46525716284137</v>
+        <v>119.81693884797048</v>
       </c>
       <c r="CM41" s="4">
         <f t="shared" si="82"/>
-        <v>126.55129944795613</v>
+        <v>116.22243068253135</v>
       </c>
       <c r="CN41" s="4">
         <f t="shared" si="82"/>
-        <v>122.75476046451743</v>
+        <v>112.73575776205541</v>
       </c>
       <c r="CO41" s="4">
         <f t="shared" si="82"/>
-        <v>119.0721176505819</v>
+        <v>109.35368502919376</v>
       </c>
       <c r="CP41" s="4">
         <f t="shared" si="82"/>
-        <v>115.49995412106445</v>
+        <v>106.07307447831793</v>
       </c>
       <c r="CQ41" s="4">
         <f t="shared" si="82"/>
-        <v>112.03495549743251</v>
+        <v>102.89088224396839</v>
       </c>
       <c r="CR41" s="4">
         <f t="shared" si="82"/>
-        <v>108.67390683250953</v>
+        <v>99.804155776649338</v>
       </c>
       <c r="CS41" s="4">
         <f t="shared" si="82"/>
-        <v>105.41368962753424</v>
+        <v>96.810031103349857</v>
       </c>
       <c r="CT41" s="4">
         <f t="shared" si="82"/>
-        <v>102.25127893870821</v>
+        <v>93.905730170249356</v>
       </c>
       <c r="CU41" s="4">
         <f t="shared" si="82"/>
-        <v>99.183740570546959</v>
+        <v>91.08855826514187</v>
       </c>
       <c r="CV41" s="4">
         <f t="shared" si="82"/>
-        <v>96.208228353430542</v>
+        <v>88.355901517187618</v>
       </c>
       <c r="CW41" s="4">
         <f t="shared" si="82"/>
-        <v>93.321981502827626</v>
+        <v>85.705224471671983</v>
       </c>
       <c r="CX41" s="4">
         <f t="shared" si="82"/>
-        <v>90.522322057742798</v>
+        <v>83.134067737521818</v>
       </c>
       <c r="CY41" s="4">
         <f t="shared" si="82"/>
-        <v>87.806652396010506</v>
+        <v>80.640045705396162</v>
       </c>
       <c r="CZ41" s="4">
         <f t="shared" si="82"/>
-        <v>85.17245282413019</v>
+        <v>78.220844334234272</v>
       </c>
       <c r="DA41" s="4">
         <f t="shared" si="82"/>
-        <v>82.617279239406287</v>
+        <v>75.874219004207248</v>
       </c>
       <c r="DB41" s="4">
         <f t="shared" si="82"/>
-        <v>80.138760862224089</v>
+        <v>73.597992434081021</v>
       </c>
       <c r="DC41" s="4">
         <f t="shared" si="82"/>
-        <v>77.734598036357369</v>
+        <v>71.39005266105859</v>
       </c>
       <c r="DD41" s="4">
         <f t="shared" si="82"/>
-        <v>75.402560095266651</v>
+        <v>69.248351081226829</v>
       </c>
     </row>
     <row r="43" spans="1:108" x14ac:dyDescent="0.2">
@@ -3190,43 +3191,43 @@
       </c>
       <c r="M43" s="2">
         <f>L43+M28</f>
-        <v>199.00288387515468</v>
+        <v>198.70126187515467</v>
       </c>
       <c r="N43" s="2">
         <f t="shared" ref="N43:Q43" si="83">M43+N28</f>
-        <v>443.1990651687027</v>
+        <v>439.74366634827527</v>
       </c>
       <c r="O43" s="2">
         <f t="shared" si="83"/>
-        <v>746.50331920161261</v>
+        <v>735.93618454879413</v>
       </c>
       <c r="P43" s="2">
         <f t="shared" si="83"/>
-        <v>1119.012827454922</v>
+        <v>1096.3170189036891</v>
       </c>
       <c r="Q43" s="2">
         <f t="shared" si="83"/>
-        <v>1595.1804636047975</v>
+        <v>1554.0870648295579</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" ref="R43" si="84">Q43+R28</f>
-        <v>2157.6513514313924</v>
+        <v>2090.0555499298994</v>
       </c>
       <c r="S43" s="2">
         <f t="shared" ref="S43" si="85">R43+S28</f>
-        <v>2834.7416433545427</v>
+        <v>2730.9189231729865</v>
       </c>
       <c r="T43" s="2">
         <f t="shared" ref="T43" si="86">S43+T28</f>
-        <v>3590.7719188292504</v>
+        <v>3438.8794827249549</v>
       </c>
       <c r="U43" s="2">
         <f t="shared" ref="U43" si="87">T43+U28</f>
-        <v>4434.4572070233316</v>
+        <v>4221.0307736206387</v>
       </c>
       <c r="V43" s="2">
         <f t="shared" ref="V43" si="88">U43+V28</f>
-        <v>5375.5322568840493</v>
+        <v>5085.2971243148622</v>
       </c>
     </row>
     <row r="45" spans="1:108" x14ac:dyDescent="0.2">
